--- a/raw_data/20200818_saline/20200818_Sensor2_Test_95.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_95.xlsx
@@ -1,673 +1,1089 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA64792-4470-4D0C-A840-26B02D3FFFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>84975.387519</v>
+        <v>84975.387518999996</v>
       </c>
       <c r="B2" s="1">
         <v>23.604274</v>
       </c>
       <c r="C2" s="1">
-        <v>1236.120000</v>
+        <v>1236.1199999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-300.461000</v>
+        <v>-300.46100000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>84985.442454</v>
+        <v>84985.442454000004</v>
       </c>
       <c r="G2" s="1">
-        <v>23.607067</v>
+        <v>23.607067000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1261.650000</v>
+        <v>1261.6500000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-259.879000</v>
+        <v>-259.87900000000002</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>84995.902584</v>
+        <v>84995.902583999996</v>
       </c>
       <c r="L2" s="1">
         <v>23.609973</v>
       </c>
       <c r="M2" s="1">
-        <v>1297.030000</v>
+        <v>1297.03</v>
       </c>
       <c r="N2" s="1">
-        <v>-199.258000</v>
+        <v>-199.25800000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>85006.433111</v>
+        <v>85006.433111000006</v>
       </c>
       <c r="Q2" s="1">
-        <v>23.612898</v>
+        <v>23.612898000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1309.180000</v>
+        <v>1309.18</v>
       </c>
       <c r="S2" s="1">
-        <v>-181.274000</v>
+        <v>-181.274</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>85016.683432</v>
+        <v>85016.683432000005</v>
       </c>
       <c r="V2" s="1">
         <v>23.615745</v>
       </c>
       <c r="W2" s="1">
-        <v>1322.110000</v>
+        <v>1322.11</v>
       </c>
       <c r="X2" s="1">
-        <v>-167.407000</v>
+        <v>-167.40700000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>85027.169703</v>
+        <v>85027.169703000007</v>
       </c>
       <c r="AA2" s="1">
         <v>23.618658</v>
       </c>
       <c r="AB2" s="1">
-        <v>1339.230000</v>
+        <v>1339.23</v>
       </c>
       <c r="AC2" s="1">
-        <v>-164.617000</v>
+        <v>-164.61699999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>85037.710861</v>
       </c>
       <c r="AF2" s="1">
-        <v>23.621586</v>
+        <v>23.621586000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1351.740000</v>
+        <v>1351.74</v>
       </c>
       <c r="AH2" s="1">
-        <v>-173.631000</v>
+        <v>-173.631</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>85048.170990</v>
+        <v>85048.170989999999</v>
       </c>
       <c r="AK2" s="1">
         <v>23.624492</v>
       </c>
       <c r="AL2" s="1">
-        <v>1371.450000</v>
+        <v>1371.45</v>
       </c>
       <c r="AM2" s="1">
-        <v>-202.242000</v>
+        <v>-202.24199999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>85058.743217</v>
+        <v>85058.743216999996</v>
       </c>
       <c r="AP2" s="1">
-        <v>23.627429</v>
+        <v>23.627428999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1392.150000</v>
+        <v>1392.15</v>
       </c>
       <c r="AR2" s="1">
-        <v>-244.620000</v>
+        <v>-244.62</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>85069.975617</v>
+        <v>85069.975617000004</v>
       </c>
       <c r="AU2" s="1">
-        <v>23.630549</v>
+        <v>23.630548999999998</v>
       </c>
       <c r="AV2" s="1">
-        <v>1415.730000</v>
+        <v>1415.73</v>
       </c>
       <c r="AW2" s="1">
-        <v>-302.863000</v>
+        <v>-302.863</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>85081.028449</v>
+        <v>85081.028449000005</v>
       </c>
       <c r="AZ2" s="1">
-        <v>23.633619</v>
+        <v>23.633618999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1434.460000</v>
+        <v>1434.46</v>
       </c>
       <c r="BB2" s="1">
-        <v>-353.550000</v>
+        <v>-353.55</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>85092.067893</v>
+        <v>85092.067892999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>23.636686</v>
+        <v>23.636686000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1517.740000</v>
+        <v>1517.74</v>
       </c>
       <c r="BG2" s="1">
-        <v>-594.943000</v>
+        <v>-594.94299999999998</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>85103.093493</v>
+        <v>85103.093492999993</v>
       </c>
       <c r="BJ2" s="1">
-        <v>23.639748</v>
+        <v>23.639748000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1669.520000</v>
+        <v>1669.52</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1026.070000</v>
+        <v>-1026.07</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>85114.177893</v>
@@ -676,437 +1092,437 @@
         <v>23.642827</v>
       </c>
       <c r="BP2" s="1">
-        <v>1958.410000</v>
+        <v>1958.41</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1770.240000</v>
+        <v>-1770.24</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>85125.256201</v>
+        <v>85125.256200999997</v>
       </c>
       <c r="BT2" s="1">
-        <v>23.645905</v>
+        <v>23.645904999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>2337.250000</v>
+        <v>2337.25</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2625.450000</v>
+        <v>-2625.45</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>85135.913740</v>
+        <v>85135.913740000004</v>
       </c>
       <c r="BY2" s="1">
-        <v>23.648865</v>
+        <v>23.648865000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2807.580000</v>
+        <v>2807.58</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3560.650000</v>
+        <v>-3560.65</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>85146.586156</v>
+        <v>85146.586156000005</v>
       </c>
       <c r="CD2" s="1">
-        <v>23.651829</v>
+        <v>23.651828999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>4176.160000</v>
+        <v>4176.16</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5811.690000</v>
+        <v>-5811.69</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>84975.815566</v>
+        <v>84975.815566000005</v>
       </c>
       <c r="B3" s="1">
-        <v>23.604393</v>
+        <v>23.604393000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>1236.310000</v>
+        <v>1236.31</v>
       </c>
       <c r="D3" s="1">
-        <v>-300.328000</v>
+        <v>-300.32799999999997</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>84985.876914</v>
+        <v>84985.876913999993</v>
       </c>
       <c r="G3" s="1">
-        <v>23.607188</v>
+        <v>23.607188000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1262.040000</v>
+        <v>1262.04</v>
       </c>
       <c r="I3" s="1">
-        <v>-260.228000</v>
+        <v>-260.22800000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>84996.314723</v>
+        <v>84996.314723000003</v>
       </c>
       <c r="L3" s="1">
         <v>23.610087</v>
       </c>
       <c r="M3" s="1">
-        <v>1297.110000</v>
+        <v>1297.1099999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-199.450000</v>
+        <v>-199.45</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>85006.838837</v>
+        <v>85006.838837000003</v>
       </c>
       <c r="Q3" s="1">
         <v>23.613011</v>
       </c>
       <c r="R3" s="1">
-        <v>1309.190000</v>
+        <v>1309.19</v>
       </c>
       <c r="S3" s="1">
-        <v>-181.207000</v>
+        <v>-181.20699999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>85017.052456</v>
+        <v>85017.052456000005</v>
       </c>
       <c r="V3" s="1">
         <v>23.615848</v>
       </c>
       <c r="W3" s="1">
-        <v>1322.200000</v>
+        <v>1322.2</v>
       </c>
       <c r="X3" s="1">
-        <v>-167.651000</v>
+        <v>-167.65100000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>85027.523003</v>
+        <v>85027.523002999995</v>
       </c>
       <c r="AA3" s="1">
-        <v>23.618756</v>
+        <v>23.618756000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1339.130000</v>
+        <v>1339.13</v>
       </c>
       <c r="AC3" s="1">
-        <v>-164.631000</v>
+        <v>-164.631</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>85038.089771</v>
+        <v>85038.089770999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>23.621692</v>
+        <v>23.621691999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>1351.700000</v>
+        <v>1351.7</v>
       </c>
       <c r="AH3" s="1">
-        <v>-173.647000</v>
+        <v>-173.64699999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>85048.905534</v>
+        <v>85048.905534000005</v>
       </c>
       <c r="AK3" s="1">
         <v>23.624696</v>
       </c>
       <c r="AL3" s="1">
-        <v>1371.450000</v>
+        <v>1371.45</v>
       </c>
       <c r="AM3" s="1">
-        <v>-202.244000</v>
+        <v>-202.244</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>85059.490687</v>
+        <v>85059.490686999998</v>
       </c>
       <c r="AP3" s="1">
-        <v>23.627636</v>
+        <v>23.627635999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1392.160000</v>
+        <v>1392.16</v>
       </c>
       <c r="AR3" s="1">
-        <v>-244.575000</v>
+        <v>-244.57499999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>85070.380844</v>
+        <v>85070.380843999999</v>
       </c>
       <c r="AU3" s="1">
         <v>23.630661</v>
       </c>
       <c r="AV3" s="1">
-        <v>1415.740000</v>
+        <v>1415.74</v>
       </c>
       <c r="AW3" s="1">
-        <v>-302.869000</v>
+        <v>-302.86900000000003</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>85081.410851</v>
+        <v>85081.410850999993</v>
       </c>
       <c r="AZ3" s="1">
-        <v>23.633725</v>
+        <v>23.633724999999998</v>
       </c>
       <c r="BA3" s="1">
-        <v>1434.410000</v>
+        <v>1434.41</v>
       </c>
       <c r="BB3" s="1">
-        <v>-353.565000</v>
+        <v>-353.565</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>85092.456260</v>
+        <v>85092.456260000006</v>
       </c>
       <c r="BE3" s="1">
-        <v>23.636793</v>
+        <v>23.636793000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1517.750000</v>
+        <v>1517.75</v>
       </c>
       <c r="BG3" s="1">
-        <v>-594.968000</v>
+        <v>-594.96799999999996</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>85103.795602</v>
+        <v>85103.795601999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>23.639943</v>
+        <v>23.639942999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1669.410000</v>
+        <v>1669.41</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1026.160000</v>
+        <v>-1026.1600000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>85114.914645</v>
+        <v>85114.914644999997</v>
       </c>
       <c r="BO3" s="1">
-        <v>23.643032</v>
+        <v>23.643032000000002</v>
       </c>
       <c r="BP3" s="1">
-        <v>1958.150000</v>
+        <v>1958.15</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1770.570000</v>
+        <v>-1770.57</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>85125.423352</v>
+        <v>85125.423351999998</v>
       </c>
       <c r="BT3" s="1">
         <v>23.645951</v>
       </c>
       <c r="BU3" s="1">
-        <v>2337.810000</v>
+        <v>2337.81</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2625.410000</v>
+        <v>-2625.41</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>85136.066010</v>
+        <v>85136.066009999995</v>
       </c>
       <c r="BY3" s="1">
-        <v>23.648907</v>
+        <v>23.648907000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2806.930000</v>
+        <v>2806.93</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3561.220000</v>
+        <v>-3561.22</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>85147.152587</v>
+        <v>85147.152587000004</v>
       </c>
       <c r="CD3" s="1">
-        <v>23.651987</v>
+        <v>23.651986999999998</v>
       </c>
       <c r="CE3" s="1">
-        <v>4173.170000</v>
+        <v>4173.17</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5807.710000</v>
+        <v>-5807.71</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>84976.117133</v>
+        <v>84976.117133000007</v>
       </c>
       <c r="B4" s="1">
-        <v>23.604477</v>
+        <v>23.604476999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>1236.050000</v>
+        <v>1236.05</v>
       </c>
       <c r="D4" s="1">
-        <v>-300.423000</v>
+        <v>-300.423</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>84986.172032</v>
+        <v>84986.172032000002</v>
       </c>
       <c r="G4" s="1">
-        <v>23.607270</v>
+        <v>23.60727</v>
       </c>
       <c r="H4" s="1">
-        <v>1261.300000</v>
+        <v>1261.3</v>
       </c>
       <c r="I4" s="1">
-        <v>-260.109000</v>
+        <v>-260.10899999999998</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>84996.659475</v>
+        <v>84996.659474999993</v>
       </c>
       <c r="L4" s="1">
-        <v>23.610183</v>
+        <v>23.610182999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1297.260000</v>
+        <v>1297.26</v>
       </c>
       <c r="N4" s="1">
-        <v>-199.288000</v>
+        <v>-199.28800000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>85007.186532</v>
+        <v>85007.186532000007</v>
       </c>
       <c r="Q4" s="1">
-        <v>23.613107</v>
+        <v>23.613106999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1309.270000</v>
+        <v>1309.27</v>
       </c>
       <c r="S4" s="1">
-        <v>-181.221000</v>
+        <v>-181.221</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>85017.394199</v>
+        <v>85017.394199000002</v>
       </c>
       <c r="V4" s="1">
-        <v>23.615943</v>
+        <v>23.615943000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>1322.140000</v>
+        <v>1322.14</v>
       </c>
       <c r="X4" s="1">
-        <v>-167.475000</v>
+        <v>-167.47499999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>85028.217896</v>
+        <v>85028.217896000002</v>
       </c>
       <c r="AA4" s="1">
-        <v>23.618949</v>
+        <v>23.618949000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>1339.270000</v>
+        <v>1339.27</v>
       </c>
       <c r="AC4" s="1">
-        <v>-164.570000</v>
+        <v>-164.57</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>85038.774746</v>
+        <v>85038.774745999996</v>
       </c>
       <c r="AF4" s="1">
-        <v>23.621882</v>
+        <v>23.621881999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1351.690000</v>
+        <v>1351.69</v>
       </c>
       <c r="AH4" s="1">
-        <v>-173.625000</v>
+        <v>-173.625</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>85049.252765</v>
+        <v>85049.252764999997</v>
       </c>
       <c r="AK4" s="1">
-        <v>23.624792</v>
+        <v>23.624791999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1371.460000</v>
+        <v>1371.46</v>
       </c>
       <c r="AM4" s="1">
-        <v>-202.252000</v>
+        <v>-202.25200000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>85059.851744</v>
@@ -1115,1358 +1531,1358 @@
         <v>23.627737</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1392.140000</v>
+        <v>1392.14</v>
       </c>
       <c r="AR4" s="1">
-        <v>-244.610000</v>
+        <v>-244.61</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>85070.742400</v>
+        <v>85070.742400000003</v>
       </c>
       <c r="AU4" s="1">
-        <v>23.630762</v>
+        <v>23.630762000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1415.730000</v>
+        <v>1415.73</v>
       </c>
       <c r="AW4" s="1">
-        <v>-302.857000</v>
+        <v>-302.85700000000003</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>85081.773923</v>
+        <v>85081.773923000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>23.633826</v>
+        <v>23.633825999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1434.430000</v>
+        <v>1434.43</v>
       </c>
       <c r="BB4" s="1">
-        <v>-353.577000</v>
+        <v>-353.577</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>85093.132307</v>
+        <v>85093.132307000007</v>
       </c>
       <c r="BE4" s="1">
-        <v>23.636981</v>
+        <v>23.636980999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1517.700000</v>
+        <v>1517.7</v>
       </c>
       <c r="BG4" s="1">
-        <v>-594.955000</v>
+        <v>-594.95500000000004</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>85104.252116</v>
+        <v>85104.252116000003</v>
       </c>
       <c r="BJ4" s="1">
-        <v>23.640070</v>
+        <v>23.640070000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1669.450000</v>
+        <v>1669.45</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1026.150000</v>
+        <v>-1026.1500000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>85115.029686</v>
+        <v>85115.029685999994</v>
       </c>
       <c r="BO4" s="1">
-        <v>23.643064</v>
+        <v>23.643063999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1957.930000</v>
+        <v>1957.93</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1770.400000</v>
+        <v>-1770.4</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>85125.834040</v>
+        <v>85125.834040000002</v>
       </c>
       <c r="BT4" s="1">
         <v>23.646065</v>
       </c>
       <c r="BU4" s="1">
-        <v>2338.240000</v>
+        <v>2338.2399999999998</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2626.180000</v>
+        <v>-2626.18</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>85136.489594</v>
+        <v>85136.489593999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>23.649025</v>
+        <v>23.649025000000002</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2806.830000</v>
+        <v>2806.83</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3561.460000</v>
+        <v>-3561.46</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>85147.670907</v>
+        <v>85147.670907000007</v>
       </c>
       <c r="CD4" s="1">
-        <v>23.652131</v>
+        <v>23.652131000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>4187.940000</v>
+        <v>4187.9399999999996</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5813.440000</v>
+        <v>-5813.44</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>84976.450941</v>
+        <v>84976.450941000003</v>
       </c>
       <c r="B5" s="1">
-        <v>23.604570</v>
+        <v>23.604569999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1236.090000</v>
+        <v>1236.0899999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-300.504000</v>
+        <v>-300.50400000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>84986.513776</v>
+        <v>84986.513776000007</v>
       </c>
       <c r="G5" s="1">
-        <v>23.607365</v>
+        <v>23.607365000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1261.640000</v>
+        <v>1261.6400000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-259.802000</v>
+        <v>-259.80200000000002</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>84997.005650</v>
+        <v>84997.005650000006</v>
       </c>
       <c r="L5" s="1">
-        <v>23.610279</v>
+        <v>23.610278999999998</v>
       </c>
       <c r="M5" s="1">
-        <v>1297.130000</v>
+        <v>1297.1300000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-199.242000</v>
+        <v>-199.24199999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>85007.535220</v>
+        <v>85007.535220000005</v>
       </c>
       <c r="Q5" s="1">
         <v>23.613204</v>
       </c>
       <c r="R5" s="1">
-        <v>1309.150000</v>
+        <v>1309.1500000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>-181.222000</v>
+        <v>-181.22200000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>85018.082645</v>
+        <v>85018.082645000002</v>
       </c>
       <c r="V5" s="1">
-        <v>23.616134</v>
+        <v>23.616133999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1322.340000</v>
+        <v>1322.34</v>
       </c>
       <c r="X5" s="1">
-        <v>-167.627000</v>
+        <v>-167.62700000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>85028.564633</v>
+        <v>85028.564633000002</v>
       </c>
       <c r="AA5" s="1">
-        <v>23.619046</v>
+        <v>23.619046000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1339.180000</v>
+        <v>1339.18</v>
       </c>
       <c r="AC5" s="1">
-        <v>-164.650000</v>
+        <v>-164.65</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>85039.122939</v>
+        <v>85039.122938999993</v>
       </c>
       <c r="AF5" s="1">
         <v>23.621979</v>
       </c>
       <c r="AG5" s="1">
-        <v>1351.650000</v>
+        <v>1351.65</v>
       </c>
       <c r="AH5" s="1">
-        <v>-173.750000</v>
+        <v>-173.75</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>85049.599436</v>
+        <v>85049.599436000004</v>
       </c>
       <c r="AK5" s="1">
         <v>23.624889</v>
       </c>
       <c r="AL5" s="1">
-        <v>1371.450000</v>
+        <v>1371.45</v>
       </c>
       <c r="AM5" s="1">
-        <v>-202.280000</v>
+        <v>-202.28</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>85060.209855</v>
+        <v>85060.209854999994</v>
       </c>
       <c r="AP5" s="1">
-        <v>23.627836</v>
+        <v>23.627835999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1392.170000</v>
+        <v>1392.17</v>
       </c>
       <c r="AR5" s="1">
-        <v>-244.568000</v>
+        <v>-244.56800000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>85071.422913</v>
+        <v>85071.422913000002</v>
       </c>
       <c r="AU5" s="1">
         <v>23.630951</v>
       </c>
       <c r="AV5" s="1">
-        <v>1415.720000</v>
+        <v>1415.72</v>
       </c>
       <c r="AW5" s="1">
-        <v>-302.862000</v>
+        <v>-302.86200000000002</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>85082.548705</v>
+        <v>85082.548704999994</v>
       </c>
       <c r="AZ5" s="1">
         <v>23.634041</v>
       </c>
       <c r="BA5" s="1">
-        <v>1434.440000</v>
+        <v>1434.44</v>
       </c>
       <c r="BB5" s="1">
-        <v>-353.547000</v>
+        <v>-353.54700000000003</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>85093.563858</v>
+        <v>85093.563857999994</v>
       </c>
       <c r="BE5" s="1">
-        <v>23.637101</v>
+        <v>23.637101000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1517.690000</v>
+        <v>1517.69</v>
       </c>
       <c r="BG5" s="1">
-        <v>-595.002000</v>
+        <v>-595.00199999999995</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>85104.627587</v>
+        <v>85104.627586999995</v>
       </c>
       <c r="BJ5" s="1">
-        <v>23.640174</v>
+        <v>23.640173999999998</v>
       </c>
       <c r="BK5" s="1">
-        <v>1669.430000</v>
+        <v>1669.43</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1026.070000</v>
+        <v>-1026.07</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>85115.444837</v>
+        <v>85115.444837000003</v>
       </c>
       <c r="BO5" s="1">
         <v>23.643179</v>
       </c>
       <c r="BP5" s="1">
-        <v>1957.970000</v>
+        <v>1957.97</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1770.550000</v>
+        <v>-1770.55</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>85126.263079</v>
+        <v>85126.263078999997</v>
       </c>
       <c r="BT5" s="1">
-        <v>23.646184</v>
+        <v>23.646184000000002</v>
       </c>
       <c r="BU5" s="1">
-        <v>2338.280000</v>
+        <v>2338.2800000000002</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2627.050000</v>
+        <v>-2627.05</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>85136.909384</v>
+        <v>85136.909383999999</v>
       </c>
       <c r="BY5" s="1">
         <v>23.649141</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2807.190000</v>
+        <v>2807.19</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3561.430000</v>
+        <v>-3561.43</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>85148.190714</v>
+        <v>85148.190713999997</v>
       </c>
       <c r="CD5" s="1">
-        <v>23.652275</v>
+        <v>23.652274999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>4184.260000</v>
+        <v>4184.26</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5815.540000</v>
+        <v>-5815.54</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>84976.793181</v>
+        <v>84976.793181000001</v>
       </c>
       <c r="B6" s="1">
-        <v>23.604665</v>
+        <v>23.604665000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1236.100000</v>
+        <v>1236.0999999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-300.349000</v>
+        <v>-300.34899999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>84986.858993</v>
+        <v>84986.858993000002</v>
       </c>
       <c r="G6" s="1">
-        <v>23.607461</v>
+        <v>23.607461000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1261.030000</v>
+        <v>1261.03</v>
       </c>
       <c r="I6" s="1">
-        <v>-259.968000</v>
+        <v>-259.96800000000002</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>84997.694593</v>
+        <v>84997.694592999993</v>
       </c>
       <c r="L6" s="1">
         <v>23.610471</v>
       </c>
       <c r="M6" s="1">
-        <v>1297.540000</v>
+        <v>1297.54</v>
       </c>
       <c r="N6" s="1">
-        <v>-199.246000</v>
+        <v>-199.24600000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>85008.241539</v>
+        <v>85008.241538999995</v>
       </c>
       <c r="Q6" s="1">
-        <v>23.613400</v>
+        <v>23.613399999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1309.130000</v>
+        <v>1309.1300000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-181.279000</v>
+        <v>-181.279</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>85018.430343</v>
       </c>
       <c r="V6" s="1">
-        <v>23.616231</v>
+        <v>23.616230999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1322.160000</v>
+        <v>1322.16</v>
       </c>
       <c r="X6" s="1">
-        <v>-167.641000</v>
+        <v>-167.64099999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>85028.914777</v>
+        <v>85028.914776999998</v>
       </c>
       <c r="AA6" s="1">
-        <v>23.619143</v>
+        <v>23.619143000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1339.210000</v>
+        <v>1339.21</v>
       </c>
       <c r="AC6" s="1">
-        <v>-164.713000</v>
+        <v>-164.71299999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>85039.465178</v>
+        <v>85039.465177999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>23.622074</v>
+        <v>23.622074000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1351.700000</v>
+        <v>1351.7</v>
       </c>
       <c r="AH6" s="1">
-        <v>-173.631000</v>
+        <v>-173.631</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>85050.274491</v>
+        <v>85050.274491000004</v>
       </c>
       <c r="AK6" s="1">
         <v>23.625076</v>
       </c>
       <c r="AL6" s="1">
-        <v>1371.460000</v>
+        <v>1371.46</v>
       </c>
       <c r="AM6" s="1">
-        <v>-202.235000</v>
+        <v>-202.23500000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>85060.896813</v>
+        <v>85060.896812999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>23.628027</v>
+        <v>23.628026999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1392.140000</v>
+        <v>1392.14</v>
       </c>
       <c r="AR6" s="1">
-        <v>-244.635000</v>
+        <v>-244.63499999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>85071.865876</v>
+        <v>85071.865875999996</v>
       </c>
       <c r="AU6" s="1">
-        <v>23.631074</v>
+        <v>23.631074000000002</v>
       </c>
       <c r="AV6" s="1">
-        <v>1415.710000</v>
+        <v>1415.71</v>
       </c>
       <c r="AW6" s="1">
-        <v>-302.846000</v>
+        <v>-302.846</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>85082.867600</v>
+        <v>85082.867599999998</v>
       </c>
       <c r="AZ6" s="1">
-        <v>23.634130</v>
+        <v>23.634129999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1434.430000</v>
+        <v>1434.43</v>
       </c>
       <c r="BB6" s="1">
-        <v>-353.536000</v>
+        <v>-353.536</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>85093.926898</v>
+        <v>85093.926898000005</v>
       </c>
       <c r="BE6" s="1">
-        <v>23.637202</v>
+        <v>23.637201999999998</v>
       </c>
       <c r="BF6" s="1">
-        <v>1517.710000</v>
+        <v>1517.71</v>
       </c>
       <c r="BG6" s="1">
-        <v>-594.951000</v>
+        <v>-594.95100000000002</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>85105.001573</v>
+        <v>85105.001573000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>23.640278</v>
+        <v>23.640277999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1669.400000</v>
+        <v>1669.4</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1026.130000</v>
+        <v>-1026.1300000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>85115.843125</v>
+        <v>85115.843124999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>23.643290</v>
+        <v>23.64329</v>
       </c>
       <c r="BP6" s="1">
-        <v>1958.000000</v>
+        <v>1958</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1770.530000</v>
+        <v>-1770.53</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>85126.686663</v>
       </c>
       <c r="BT6" s="1">
-        <v>23.646302</v>
+        <v>23.646301999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>2338.890000</v>
+        <v>2338.89</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2627.400000</v>
+        <v>-2627.4</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>85137.352633</v>
+        <v>85137.352633000002</v>
       </c>
       <c r="BY6" s="1">
         <v>23.649265</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2807.400000</v>
+        <v>2807.4</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3561.330000</v>
+        <v>-3561.33</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>85148.740778</v>
+        <v>85148.740778000007</v>
       </c>
       <c r="CD6" s="1">
         <v>23.652428</v>
       </c>
       <c r="CE6" s="1">
-        <v>4172.160000</v>
+        <v>4172.16</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5805.140000</v>
+        <v>-5805.14</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>84977.475179</v>
+        <v>84977.475179000001</v>
       </c>
       <c r="B7" s="1">
         <v>23.604854</v>
       </c>
       <c r="C7" s="1">
-        <v>1236.160000</v>
+        <v>1236.1600000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-300.253000</v>
+        <v>-300.25299999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>84987.548468</v>
+        <v>84987.548467999994</v>
       </c>
       <c r="G7" s="1">
-        <v>23.607652</v>
+        <v>23.607652000000002</v>
       </c>
       <c r="H7" s="1">
-        <v>1261.150000</v>
+        <v>1261.1500000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-259.486000</v>
+        <v>-259.48599999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>84998.038816</v>
       </c>
       <c r="L7" s="1">
-        <v>23.610566</v>
+        <v>23.610565999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1297.120000</v>
+        <v>1297.1199999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-199.140000</v>
+        <v>-199.14</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>85008.578308</v>
+        <v>85008.578307999996</v>
       </c>
       <c r="Q7" s="1">
-        <v>23.613494</v>
+        <v>23.613493999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1309.150000</v>
+        <v>1309.1500000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>-181.165000</v>
+        <v>-181.16499999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>85018.772581</v>
+        <v>85018.772580999997</v>
       </c>
       <c r="V7" s="1">
-        <v>23.616326</v>
+        <v>23.616326000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>1322.190000</v>
+        <v>1322.19</v>
       </c>
       <c r="X7" s="1">
-        <v>-167.684000</v>
+        <v>-167.684</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>85029.577960</v>
+        <v>85029.577959999995</v>
       </c>
       <c r="AA7" s="1">
-        <v>23.619327</v>
+        <v>23.619326999999998</v>
       </c>
       <c r="AB7" s="1">
-        <v>1339.180000</v>
+        <v>1339.18</v>
       </c>
       <c r="AC7" s="1">
-        <v>-164.714000</v>
+        <v>-164.714</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>85040.122377</v>
+        <v>85040.122377000007</v>
       </c>
       <c r="AF7" s="1">
         <v>23.622256</v>
       </c>
       <c r="AG7" s="1">
-        <v>1351.680000</v>
+        <v>1351.68</v>
       </c>
       <c r="AH7" s="1">
-        <v>-173.626000</v>
+        <v>-173.626</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>85050.645499</v>
+        <v>85050.645499000006</v>
       </c>
       <c r="AK7" s="1">
-        <v>23.625179</v>
+        <v>23.625178999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1371.440000</v>
+        <v>1371.44</v>
       </c>
       <c r="AM7" s="1">
-        <v>-202.247000</v>
+        <v>-202.24700000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>85061.289149</v>
+        <v>85061.289149000004</v>
       </c>
       <c r="AP7" s="1">
-        <v>23.628136</v>
+        <v>23.628136000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1392.180000</v>
+        <v>1392.18</v>
       </c>
       <c r="AR7" s="1">
-        <v>-244.595000</v>
+        <v>-244.595</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>85072.231390</v>
+        <v>85072.231390000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>23.631175</v>
+        <v>23.631174999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1415.730000</v>
+        <v>1415.73</v>
       </c>
       <c r="AW7" s="1">
-        <v>-302.862000</v>
+        <v>-302.86200000000002</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>85083.255473</v>
+        <v>85083.255472999997</v>
       </c>
       <c r="AZ7" s="1">
         <v>23.634238</v>
       </c>
       <c r="BA7" s="1">
-        <v>1434.410000</v>
+        <v>1434.41</v>
       </c>
       <c r="BB7" s="1">
-        <v>-353.562000</v>
+        <v>-353.56200000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>85094.287985</v>
+        <v>85094.287985000003</v>
       </c>
       <c r="BE7" s="1">
-        <v>23.637302</v>
+        <v>23.637301999999998</v>
       </c>
       <c r="BF7" s="1">
-        <v>1517.690000</v>
+        <v>1517.69</v>
       </c>
       <c r="BG7" s="1">
-        <v>-594.948000</v>
+        <v>-594.94799999999998</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>85105.422676</v>
+        <v>85105.422676000002</v>
       </c>
       <c r="BJ7" s="1">
-        <v>23.640395</v>
+        <v>23.640395000000002</v>
       </c>
       <c r="BK7" s="1">
-        <v>1669.390000</v>
+        <v>1669.39</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1026.080000</v>
+        <v>-1026.08</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>85116.269190</v>
+        <v>85116.269190000006</v>
       </c>
       <c r="BO7" s="1">
-        <v>23.643408</v>
+        <v>23.643408000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1958.020000</v>
+        <v>1958.02</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1770.420000</v>
+        <v>-1770.42</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>85127.091398</v>
+        <v>85127.091398000004</v>
       </c>
       <c r="BT7" s="1">
         <v>23.646414</v>
       </c>
       <c r="BU7" s="1">
-        <v>2338.490000</v>
+        <v>2338.4899999999998</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2628.170000</v>
+        <v>-2628.17</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>85137.945352</v>
+        <v>85137.945351999995</v>
       </c>
       <c r="BY7" s="1">
-        <v>23.649429</v>
+        <v>23.649429000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2807.100000</v>
+        <v>2807.1</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3561.010000</v>
+        <v>-3561.01</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>85149.272488</v>
+        <v>85149.272488000002</v>
       </c>
       <c r="CD7" s="1">
         <v>23.652576</v>
       </c>
       <c r="CE7" s="1">
-        <v>4185.350000</v>
+        <v>4185.3500000000004</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5814.230000</v>
+        <v>-5814.23</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>84977.818908</v>
+        <v>84977.818908000001</v>
       </c>
       <c r="B8" s="1">
-        <v>23.604950</v>
+        <v>23.604949999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1235.860000</v>
+        <v>1235.8599999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-300.371000</v>
+        <v>-300.37099999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>84987.898109</v>
+        <v>84987.898109000002</v>
       </c>
       <c r="G8" s="1">
-        <v>23.607749</v>
+        <v>23.607748999999998</v>
       </c>
       <c r="H8" s="1">
-        <v>1261.830000</v>
+        <v>1261.83</v>
       </c>
       <c r="I8" s="1">
-        <v>-260.706000</v>
+        <v>-260.70600000000002</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>84998.391008</v>
+        <v>84998.391008000006</v>
       </c>
       <c r="L8" s="1">
         <v>23.610664</v>
       </c>
       <c r="M8" s="1">
-        <v>1297.640000</v>
+        <v>1297.6400000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-199.198000</v>
+        <v>-199.19800000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>85009.033173</v>
+        <v>85009.033173000003</v>
       </c>
       <c r="Q8" s="1">
-        <v>23.613620</v>
+        <v>23.613620000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1309.220000</v>
+        <v>1309.22</v>
       </c>
       <c r="S8" s="1">
-        <v>-181.210000</v>
+        <v>-181.21</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>85019.439236</v>
+        <v>85019.439236000006</v>
       </c>
       <c r="V8" s="1">
-        <v>23.616511</v>
+        <v>23.616510999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1322.160000</v>
+        <v>1322.16</v>
       </c>
       <c r="X8" s="1">
-        <v>-167.556000</v>
+        <v>-167.55600000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>85029.960342</v>
+        <v>85029.960342000006</v>
       </c>
       <c r="AA8" s="1">
-        <v>23.619433</v>
+        <v>23.619433000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1339.230000</v>
+        <v>1339.23</v>
       </c>
       <c r="AC8" s="1">
-        <v>-164.663000</v>
+        <v>-164.66300000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>85040.492393</v>
+        <v>85040.492392999993</v>
       </c>
       <c r="AF8" s="1">
-        <v>23.622359</v>
+        <v>23.622358999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1351.760000</v>
+        <v>1351.76</v>
       </c>
       <c r="AH8" s="1">
-        <v>-173.664000</v>
+        <v>-173.66399999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>85050.993690</v>
+        <v>85050.993690000003</v>
       </c>
       <c r="AK8" s="1">
-        <v>23.625276</v>
+        <v>23.625275999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1371.450000</v>
+        <v>1371.45</v>
       </c>
       <c r="AM8" s="1">
-        <v>-202.229000</v>
+        <v>-202.22900000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>85061.654701</v>
+        <v>85061.654701000007</v>
       </c>
       <c r="AP8" s="1">
-        <v>23.628237</v>
+        <v>23.628236999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1392.140000</v>
+        <v>1392.14</v>
       </c>
       <c r="AR8" s="1">
-        <v>-244.615000</v>
+        <v>-244.61500000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>85072.595454</v>
+        <v>85072.595453999995</v>
       </c>
       <c r="AU8" s="1">
-        <v>23.631277</v>
+        <v>23.631277000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1415.750000</v>
+        <v>1415.75</v>
       </c>
       <c r="AW8" s="1">
-        <v>-302.882000</v>
+        <v>-302.88200000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>85083.680543</v>
+        <v>85083.680542999995</v>
       </c>
       <c r="AZ8" s="1">
         <v>23.634356</v>
       </c>
       <c r="BA8" s="1">
-        <v>1434.420000</v>
+        <v>1434.42</v>
       </c>
       <c r="BB8" s="1">
-        <v>-353.536000</v>
+        <v>-353.536</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>85094.710577</v>
+        <v>85094.710577000005</v>
       </c>
       <c r="BE8" s="1">
-        <v>23.637420</v>
+        <v>23.637419999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1517.730000</v>
+        <v>1517.73</v>
       </c>
       <c r="BG8" s="1">
-        <v>-594.942000</v>
+        <v>-594.94200000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>85105.779796</v>
+        <v>85105.779796000003</v>
       </c>
       <c r="BJ8" s="1">
         <v>23.640494</v>
       </c>
       <c r="BK8" s="1">
-        <v>1669.420000</v>
+        <v>1669.42</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1026.140000</v>
+        <v>-1026.1400000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>85116.662019</v>
+        <v>85116.662018999996</v>
       </c>
       <c r="BO8" s="1">
-        <v>23.643517</v>
+        <v>23.643516999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1958.020000</v>
+        <v>1958.02</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1770.560000</v>
+        <v>-1770.56</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>85127.507046</v>
+        <v>85127.507045999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>23.646530</v>
+        <v>23.646529999999998</v>
       </c>
       <c r="BU8" s="1">
-        <v>2338.480000</v>
+        <v>2338.48</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2628.740000</v>
+        <v>-2628.74</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>85138.232537</v>
+        <v>85138.232537000004</v>
       </c>
       <c r="BY8" s="1">
-        <v>23.649509</v>
+        <v>23.649508999999998</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2807.740000</v>
+        <v>2807.74</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3561.200000</v>
+        <v>-3561.2</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>85149.789320</v>
+        <v>85149.789319999996</v>
       </c>
       <c r="CD8" s="1">
-        <v>23.652719</v>
+        <v>23.652719000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>4191.810000</v>
+        <v>4191.8100000000004</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5799.480000</v>
+        <v>-5799.48</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>84978.158171</v>
+        <v>84978.158171000003</v>
       </c>
       <c r="B9" s="1">
-        <v>23.605044</v>
+        <v>23.605043999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1236.010000</v>
+        <v>1236.01</v>
       </c>
       <c r="D9" s="1">
-        <v>-300.403000</v>
+        <v>-300.40300000000002</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>84988.241870</v>
+        <v>84988.241869999998</v>
       </c>
       <c r="G9" s="1">
-        <v>23.607845</v>
+        <v>23.607845000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1261.040000</v>
+        <v>1261.04</v>
       </c>
       <c r="I9" s="1">
-        <v>-259.755000</v>
+        <v>-259.755</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>84999.049701</v>
+        <v>84999.049700999996</v>
       </c>
       <c r="L9" s="1">
         <v>23.610847</v>
       </c>
       <c r="M9" s="1">
-        <v>1297.270000</v>
+        <v>1297.27</v>
       </c>
       <c r="N9" s="1">
-        <v>-199.055000</v>
+        <v>-199.05500000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>85009.484548</v>
+        <v>85009.484547999993</v>
       </c>
       <c r="Q9" s="1">
-        <v>23.613746</v>
+        <v>23.613745999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1309.240000</v>
+        <v>1309.24</v>
       </c>
       <c r="S9" s="1">
-        <v>-181.247000</v>
+        <v>-181.24700000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>85019.804756</v>
+        <v>85019.804755999998</v>
       </c>
       <c r="V9" s="1">
         <v>23.616612</v>
       </c>
       <c r="W9" s="1">
-        <v>1322.390000</v>
+        <v>1322.39</v>
       </c>
       <c r="X9" s="1">
-        <v>-167.661000</v>
+        <v>-167.661</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>85030.309059</v>
+        <v>85030.309059000007</v>
       </c>
       <c r="AA9" s="1">
-        <v>23.619530</v>
+        <v>23.619530000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1339.170000</v>
+        <v>1339.17</v>
       </c>
       <c r="AC9" s="1">
-        <v>-164.580000</v>
+        <v>-164.58</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>85040.835161</v>
+        <v>85040.835160999995</v>
       </c>
       <c r="AF9" s="1">
-        <v>23.622454</v>
+        <v>23.622454000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1351.750000</v>
+        <v>1351.75</v>
       </c>
       <c r="AH9" s="1">
-        <v>-173.604000</v>
+        <v>-173.60400000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>85051.342378</v>
+        <v>85051.342378000001</v>
       </c>
       <c r="AK9" s="1">
         <v>23.625373</v>
       </c>
       <c r="AL9" s="1">
-        <v>1371.490000</v>
+        <v>1371.49</v>
       </c>
       <c r="AM9" s="1">
-        <v>-202.259000</v>
+        <v>-202.25899999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>85062.015788</v>
+        <v>85062.015788000004</v>
       </c>
       <c r="AP9" s="1">
-        <v>23.628338</v>
+        <v>23.628337999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1392.140000</v>
+        <v>1392.14</v>
       </c>
       <c r="AR9" s="1">
-        <v>-244.586000</v>
+        <v>-244.58600000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>85073.016590</v>
+        <v>85073.016589999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>23.631393</v>
+        <v>23.631392999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1415.720000</v>
+        <v>1415.72</v>
       </c>
       <c r="AW9" s="1">
-        <v>-302.857000</v>
+        <v>-302.85700000000003</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>85083.973184</v>
+        <v>85083.973184000002</v>
       </c>
       <c r="AZ9" s="1">
-        <v>23.634437</v>
+        <v>23.634436999999998</v>
       </c>
       <c r="BA9" s="1">
-        <v>1434.440000</v>
+        <v>1434.44</v>
       </c>
       <c r="BB9" s="1">
-        <v>-353.520000</v>
+        <v>-353.52</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>85095.012946</v>
+        <v>85095.012946000003</v>
       </c>
       <c r="BE9" s="1">
         <v>23.637504</v>
       </c>
       <c r="BF9" s="1">
-        <v>1517.700000</v>
+        <v>1517.7</v>
       </c>
       <c r="BG9" s="1">
-        <v>-594.950000</v>
+        <v>-594.95000000000005</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>85106.153777</v>
       </c>
       <c r="BJ9" s="1">
-        <v>23.640598</v>
+        <v>23.640598000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1669.410000</v>
+        <v>1669.41</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1026.090000</v>
+        <v>-1026.0899999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>85117.085603</v>
@@ -2475,1360 +2891,1360 @@
         <v>23.643635</v>
       </c>
       <c r="BP9" s="1">
-        <v>1957.920000</v>
+        <v>1957.92</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1770.460000</v>
+        <v>-1770.46</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>85127.923190</v>
+        <v>85127.923190000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>23.646645</v>
+        <v>23.646644999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>2337.550000</v>
+        <v>2337.5500000000002</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2629.080000</v>
+        <v>-2629.08</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>85138.690342</v>
+        <v>85138.690342000002</v>
       </c>
       <c r="BY9" s="1">
-        <v>23.649636</v>
+        <v>23.649636000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2807.390000</v>
+        <v>2807.39</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3560.700000</v>
+        <v>-3560.7</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>85150.309623</v>
+        <v>85150.309622999994</v>
       </c>
       <c r="CD9" s="1">
-        <v>23.652864</v>
+        <v>23.652864000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>4175.200000</v>
+        <v>4175.2</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5795.720000</v>
+        <v>-5795.72</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>84978.817850</v>
+        <v>84978.817850000007</v>
       </c>
       <c r="B10" s="1">
-        <v>23.605227</v>
+        <v>23.605226999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1236.150000</v>
+        <v>1236.1500000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-300.382000</v>
+        <v>-300.38200000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>84988.896556</v>
+        <v>84988.896556000007</v>
       </c>
       <c r="G10" s="1">
         <v>23.608027</v>
       </c>
       <c r="H10" s="1">
-        <v>1261.870000</v>
+        <v>1261.8699999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-260.068000</v>
+        <v>-260.06799999999998</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>84999.428639</v>
+        <v>84999.428639000005</v>
       </c>
       <c r="L10" s="1">
-        <v>23.610952</v>
+        <v>23.610952000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1297.200000</v>
+        <v>1297.2</v>
       </c>
       <c r="N10" s="1">
-        <v>-199.330000</v>
+        <v>-199.33</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>85009.627841</v>
+        <v>85009.627840999994</v>
       </c>
       <c r="Q10" s="1">
-        <v>23.613786</v>
+        <v>23.613786000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1309.230000</v>
+        <v>1309.23</v>
       </c>
       <c r="S10" s="1">
-        <v>-181.331000</v>
+        <v>-181.33099999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>85020.146995</v>
+        <v>85020.146995000003</v>
       </c>
       <c r="V10" s="1">
-        <v>23.616707</v>
+        <v>23.616707000000002</v>
       </c>
       <c r="W10" s="1">
-        <v>1322.350000</v>
+        <v>1322.35</v>
       </c>
       <c r="X10" s="1">
-        <v>-167.568000</v>
+        <v>-167.56800000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>85030.656229</v>
       </c>
       <c r="AA10" s="1">
-        <v>23.619627</v>
+        <v>23.619627000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1339.240000</v>
+        <v>1339.24</v>
       </c>
       <c r="AC10" s="1">
-        <v>-164.701000</v>
+        <v>-164.70099999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>85041.185304</v>
+        <v>85041.185303999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>23.622551</v>
+        <v>23.622551000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1351.730000</v>
+        <v>1351.73</v>
       </c>
       <c r="AH10" s="1">
-        <v>-173.696000</v>
+        <v>-173.696</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>85051.767450</v>
+        <v>85051.767449999999</v>
       </c>
       <c r="AK10" s="1">
         <v>23.625491</v>
       </c>
       <c r="AL10" s="1">
-        <v>1371.410000</v>
+        <v>1371.41</v>
       </c>
       <c r="AM10" s="1">
-        <v>-202.248000</v>
+        <v>-202.24799999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>85062.445856</v>
+        <v>85062.445856000006</v>
       </c>
       <c r="AP10" s="1">
-        <v>23.628457</v>
+        <v>23.628457000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1392.160000</v>
+        <v>1392.16</v>
       </c>
       <c r="AR10" s="1">
-        <v>-244.614000</v>
+        <v>-244.614</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>85073.324573</v>
+        <v>85073.324573000005</v>
       </c>
       <c r="AU10" s="1">
-        <v>23.631479</v>
+        <v>23.631478999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1415.730000</v>
+        <v>1415.73</v>
       </c>
       <c r="AW10" s="1">
-        <v>-302.867000</v>
+        <v>-302.86700000000002</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>85084.333280</v>
+        <v>85084.333280000006</v>
       </c>
       <c r="AZ10" s="1">
-        <v>23.634537</v>
+        <v>23.634537000000002</v>
       </c>
       <c r="BA10" s="1">
-        <v>1434.440000</v>
+        <v>1434.44</v>
       </c>
       <c r="BB10" s="1">
-        <v>-353.559000</v>
+        <v>-353.55900000000003</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>85095.372736</v>
+        <v>85095.372736000005</v>
       </c>
       <c r="BE10" s="1">
         <v>23.637604</v>
       </c>
       <c r="BF10" s="1">
-        <v>1517.700000</v>
+        <v>1517.7</v>
       </c>
       <c r="BG10" s="1">
-        <v>-594.935000</v>
+        <v>-594.93499999999995</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>85106.529745</v>
+        <v>85106.529745000007</v>
       </c>
       <c r="BJ10" s="1">
-        <v>23.640703</v>
+        <v>23.640702999999998</v>
       </c>
       <c r="BK10" s="1">
-        <v>1669.310000</v>
+        <v>1669.31</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1025.990000</v>
+        <v>-1025.99</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>85117.481906</v>
+        <v>85117.481906000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>23.643745</v>
+        <v>23.643744999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1957.930000</v>
+        <v>1957.93</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1770.600000</v>
+        <v>-1770.6</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>85128.348297</v>
+        <v>85128.348297000004</v>
       </c>
       <c r="BT10" s="1">
         <v>23.646763</v>
       </c>
       <c r="BU10" s="1">
-        <v>2336.940000</v>
+        <v>2336.94</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2629.400000</v>
+        <v>-2629.4</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>85139.076270</v>
+        <v>85139.076270000005</v>
       </c>
       <c r="BY10" s="1">
-        <v>23.649743</v>
+        <v>23.649743000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2807.300000</v>
+        <v>2807.3</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3561.080000</v>
+        <v>-3561.08</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>85150.826454</v>
+        <v>85150.826453999995</v>
       </c>
       <c r="CD10" s="1">
-        <v>23.653007</v>
+        <v>23.653006999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>4173.510000</v>
+        <v>4173.51</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5812.460000</v>
+        <v>-5812.46</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>84979.179929</v>
+        <v>84979.179929000005</v>
       </c>
       <c r="B11" s="1">
         <v>23.605328</v>
       </c>
       <c r="C11" s="1">
-        <v>1236.090000</v>
+        <v>1236.0899999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-300.646000</v>
+        <v>-300.64600000000002</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>84989.274012</v>
+        <v>84989.274011999994</v>
       </c>
       <c r="G11" s="1">
-        <v>23.608132</v>
+        <v>23.608132000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1261.090000</v>
+        <v>1261.0899999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-259.136000</v>
+        <v>-259.13600000000002</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>84999.774319</v>
+        <v>84999.774319000004</v>
       </c>
       <c r="L11" s="1">
         <v>23.611048</v>
       </c>
       <c r="M11" s="1">
-        <v>1297.340000</v>
+        <v>1297.3399999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-199.372000</v>
+        <v>-199.37200000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>85009.975073</v>
+        <v>85009.975072999994</v>
       </c>
       <c r="Q11" s="1">
         <v>23.613882</v>
       </c>
       <c r="R11" s="1">
-        <v>1309.210000</v>
+        <v>1309.21</v>
       </c>
       <c r="S11" s="1">
-        <v>-181.290000</v>
+        <v>-181.29</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>85020.491220</v>
+        <v>85020.491219999996</v>
       </c>
       <c r="V11" s="1">
-        <v>23.616803</v>
+        <v>23.616803000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>1322.300000</v>
+        <v>1322.3</v>
       </c>
       <c r="X11" s="1">
-        <v>-167.572000</v>
+        <v>-167.572</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>85031.078821</v>
+        <v>85031.078821000003</v>
       </c>
       <c r="AA11" s="1">
-        <v>23.619744</v>
+        <v>23.619744000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1339.290000</v>
+        <v>1339.29</v>
       </c>
       <c r="AC11" s="1">
-        <v>-164.657000</v>
+        <v>-164.65700000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>85041.612854</v>
+        <v>85041.612854000006</v>
       </c>
       <c r="AF11" s="1">
-        <v>23.622670</v>
+        <v>23.622669999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1351.650000</v>
+        <v>1351.65</v>
       </c>
       <c r="AH11" s="1">
-        <v>-173.769000</v>
+        <v>-173.76900000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>85052.039289</v>
+        <v>85052.039288999993</v>
       </c>
       <c r="AK11" s="1">
-        <v>23.625566</v>
+        <v>23.625565999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1371.480000</v>
+        <v>1371.48</v>
       </c>
       <c r="AM11" s="1">
-        <v>-202.244000</v>
+        <v>-202.244</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>85062.732517</v>
+        <v>85062.732516999997</v>
       </c>
       <c r="AP11" s="1">
-        <v>23.628537</v>
+        <v>23.628537000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1392.140000</v>
+        <v>1392.14</v>
       </c>
       <c r="AR11" s="1">
-        <v>-244.630000</v>
+        <v>-244.63</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>85073.689629</v>
       </c>
       <c r="AU11" s="1">
-        <v>23.631580</v>
+        <v>23.63158</v>
       </c>
       <c r="AV11" s="1">
-        <v>1415.750000</v>
+        <v>1415.75</v>
       </c>
       <c r="AW11" s="1">
-        <v>-302.828000</v>
+        <v>-302.82799999999997</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>85084.691918</v>
+        <v>85084.691917999997</v>
       </c>
       <c r="AZ11" s="1">
-        <v>23.634637</v>
+        <v>23.634637000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1434.410000</v>
+        <v>1434.41</v>
       </c>
       <c r="BB11" s="1">
-        <v>-353.547000</v>
+        <v>-353.54700000000003</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>85095.734321</v>
+        <v>85095.734320999996</v>
       </c>
       <c r="BE11" s="1">
-        <v>23.637704</v>
+        <v>23.637703999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1517.670000</v>
+        <v>1517.67</v>
       </c>
       <c r="BG11" s="1">
-        <v>-594.920000</v>
+        <v>-594.91999999999996</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>85107.303504</v>
+        <v>85107.303503999996</v>
       </c>
       <c r="BJ11" s="1">
-        <v>23.640918</v>
+        <v>23.640917999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1669.340000</v>
+        <v>1669.34</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1026.080000</v>
+        <v>-1026.08</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>85117.913426</v>
+        <v>85117.913425999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>23.643865</v>
+        <v>23.643865000000002</v>
       </c>
       <c r="BP11" s="1">
-        <v>1957.890000</v>
+        <v>1957.89</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1770.530000</v>
+        <v>-1770.53</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>85128.753987</v>
+        <v>85128.753987000004</v>
       </c>
       <c r="BT11" s="1">
-        <v>23.646876</v>
+        <v>23.646875999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>2336.470000</v>
+        <v>2336.4699999999998</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2629.840000</v>
+        <v>-2629.84</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>85139.516182</v>
+        <v>85139.516182000007</v>
       </c>
       <c r="BY11" s="1">
-        <v>23.649866</v>
+        <v>23.649865999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2806.460000</v>
+        <v>2806.46</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3561.530000</v>
+        <v>-3561.53</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>85151.345767</v>
+        <v>85151.345767000006</v>
       </c>
       <c r="CD11" s="1">
-        <v>23.653152</v>
+        <v>23.653151999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>4189.530000</v>
+        <v>4189.53</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5812.530000</v>
+        <v>-5812.53</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>84979.527130</v>
+        <v>84979.527130000002</v>
       </c>
       <c r="B12" s="1">
-        <v>23.605424</v>
+        <v>23.605423999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1235.820000</v>
+        <v>1235.82</v>
       </c>
       <c r="D12" s="1">
-        <v>-300.279000</v>
+        <v>-300.279</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>84989.618731</v>
+        <v>84989.618730999995</v>
       </c>
       <c r="G12" s="1">
-        <v>23.608227</v>
+        <v>23.608226999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1260.540000</v>
+        <v>1260.54</v>
       </c>
       <c r="I12" s="1">
-        <v>-260.713000</v>
+        <v>-260.71300000000002</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>85000.119038</v>
+        <v>85000.119038000004</v>
       </c>
       <c r="L12" s="1">
-        <v>23.611144</v>
+        <v>23.611143999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1297.070000</v>
+        <v>1297.07</v>
       </c>
       <c r="N12" s="1">
-        <v>-199.358000</v>
+        <v>-199.358</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>85010.399616</v>
+        <v>85010.399615999995</v>
       </c>
       <c r="Q12" s="1">
-        <v>23.614000</v>
+        <v>23.614000000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1309.160000</v>
+        <v>1309.1600000000001</v>
       </c>
       <c r="S12" s="1">
-        <v>-181.311000</v>
+        <v>-181.31100000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>85020.915794</v>
       </c>
       <c r="V12" s="1">
-        <v>23.616921</v>
+        <v>23.616921000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1322.270000</v>
+        <v>1322.27</v>
       </c>
       <c r="X12" s="1">
-        <v>-167.592000</v>
+        <v>-167.59200000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>85031.351900</v>
+        <v>85031.351899999994</v>
       </c>
       <c r="AA12" s="1">
-        <v>23.619820</v>
+        <v>23.619820000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1339.300000</v>
+        <v>1339.3</v>
       </c>
       <c r="AC12" s="1">
-        <v>-164.572000</v>
+        <v>-164.572</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>85041.891633</v>
+        <v>85041.891633000007</v>
       </c>
       <c r="AF12" s="1">
-        <v>23.622748</v>
+        <v>23.622748000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1351.670000</v>
+        <v>1351.67</v>
       </c>
       <c r="AH12" s="1">
-        <v>-173.689000</v>
+        <v>-173.68899999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>85052.388938</v>
+        <v>85052.388938000004</v>
       </c>
       <c r="AK12" s="1">
         <v>23.625664</v>
       </c>
       <c r="AL12" s="1">
-        <v>1371.430000</v>
+        <v>1371.43</v>
       </c>
       <c r="AM12" s="1">
-        <v>-202.229000</v>
+        <v>-202.22900000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>85063.093595</v>
+        <v>85063.093594999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>23.628637</v>
+        <v>23.628637000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1392.140000</v>
+        <v>1392.14</v>
       </c>
       <c r="AR12" s="1">
-        <v>-244.617000</v>
+        <v>-244.61699999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>85074.055676</v>
+        <v>85074.055676000004</v>
       </c>
       <c r="AU12" s="1">
-        <v>23.631682</v>
+        <v>23.631682000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1415.720000</v>
+        <v>1415.72</v>
       </c>
       <c r="AW12" s="1">
-        <v>-302.864000</v>
+        <v>-302.86399999999998</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>85085.409101</v>
+        <v>85085.409100999997</v>
       </c>
       <c r="AZ12" s="1">
         <v>23.634836</v>
       </c>
       <c r="BA12" s="1">
-        <v>1434.440000</v>
+        <v>1434.44</v>
       </c>
       <c r="BB12" s="1">
-        <v>-353.532000</v>
+        <v>-353.53199999999998</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>85096.455007</v>
+        <v>85096.455006999997</v>
       </c>
       <c r="BE12" s="1">
-        <v>23.637904</v>
+        <v>23.637903999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1517.670000</v>
+        <v>1517.67</v>
       </c>
       <c r="BG12" s="1">
-        <v>-594.914000</v>
+        <v>-594.91399999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>85107.678976</v>
+        <v>85107.678975999996</v>
       </c>
       <c r="BJ12" s="1">
         <v>23.641022</v>
       </c>
       <c r="BK12" s="1">
-        <v>1669.350000</v>
+        <v>1669.35</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1026.120000</v>
+        <v>-1026.1199999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>85118.298322</v>
+        <v>85118.298322000002</v>
       </c>
       <c r="BO12" s="1">
-        <v>23.643972</v>
+        <v>23.643972000000002</v>
       </c>
       <c r="BP12" s="1">
-        <v>1957.970000</v>
+        <v>1957.97</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1770.430000</v>
+        <v>-1770.43</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>85129.169139</v>
+        <v>85129.169139000005</v>
       </c>
       <c r="BT12" s="1">
         <v>23.646991</v>
       </c>
       <c r="BU12" s="1">
-        <v>2335.650000</v>
+        <v>2335.65</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2629.470000</v>
+        <v>-2629.47</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>85140.287462</v>
+        <v>85140.287461999993</v>
       </c>
       <c r="BY12" s="1">
-        <v>23.650080</v>
+        <v>23.650079999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2806.540000</v>
+        <v>2806.54</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3561.580000</v>
+        <v>-3561.58</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>85152.180037</v>
+        <v>85152.180036999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>23.653383</v>
+        <v>23.653383000000002</v>
       </c>
       <c r="CE12" s="1">
-        <v>4189.370000</v>
+        <v>4189.37</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5798.510000</v>
+        <v>-5798.51</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>84979.866393</v>
+        <v>84979.866393000004</v>
       </c>
       <c r="B13" s="1">
         <v>23.605518</v>
       </c>
       <c r="C13" s="1">
-        <v>1236.130000</v>
+        <v>1236.1300000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-300.639000</v>
+        <v>-300.63900000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>84989.962459</v>
+        <v>84989.962459000002</v>
       </c>
       <c r="G13" s="1">
-        <v>23.608323</v>
+        <v>23.608322999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1261.570000</v>
+        <v>1261.57</v>
       </c>
       <c r="I13" s="1">
-        <v>-259.962000</v>
+        <v>-259.96199999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>85000.543149</v>
+        <v>85000.543149000005</v>
       </c>
       <c r="L13" s="1">
         <v>23.611262</v>
       </c>
       <c r="M13" s="1">
-        <v>1297.380000</v>
+        <v>1297.3800000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-199.216000</v>
+        <v>-199.21600000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>85010.674897</v>
+        <v>85010.674897000004</v>
       </c>
       <c r="Q13" s="1">
-        <v>23.614076</v>
+        <v>23.614076000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1309.090000</v>
+        <v>1309.0899999999999</v>
       </c>
       <c r="S13" s="1">
-        <v>-181.205000</v>
+        <v>-181.20500000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>85021.180162</v>
+        <v>85021.180162000004</v>
       </c>
       <c r="V13" s="1">
-        <v>23.616994</v>
+        <v>23.616993999999998</v>
       </c>
       <c r="W13" s="1">
-        <v>1322.240000</v>
+        <v>1322.24</v>
       </c>
       <c r="X13" s="1">
-        <v>-167.617000</v>
+        <v>-167.61699999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>85031.705301</v>
+        <v>85031.705300999995</v>
       </c>
       <c r="AA13" s="1">
-        <v>23.619918</v>
+        <v>23.619917999999998</v>
       </c>
       <c r="AB13" s="1">
-        <v>1339.190000</v>
+        <v>1339.19</v>
       </c>
       <c r="AC13" s="1">
-        <v>-164.702000</v>
+        <v>-164.702</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>85042.236822</v>
+        <v>85042.236822000006</v>
       </c>
       <c r="AF13" s="1">
-        <v>23.622844</v>
+        <v>23.622844000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1351.670000</v>
+        <v>1351.67</v>
       </c>
       <c r="AH13" s="1">
-        <v>-173.648000</v>
+        <v>-173.648</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>85052.737128</v>
+        <v>85052.737127999993</v>
       </c>
       <c r="AK13" s="1">
-        <v>23.625760</v>
+        <v>23.62576</v>
       </c>
       <c r="AL13" s="1">
-        <v>1371.470000</v>
+        <v>1371.47</v>
       </c>
       <c r="AM13" s="1">
-        <v>-202.219000</v>
+        <v>-202.21899999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>85063.456699</v>
+        <v>85063.456699000002</v>
       </c>
       <c r="AP13" s="1">
-        <v>23.628738</v>
+        <v>23.628737999999998</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1392.150000</v>
+        <v>1392.15</v>
       </c>
       <c r="AR13" s="1">
-        <v>-244.591000</v>
+        <v>-244.59100000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>85074.781504</v>
+        <v>85074.781503999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>23.631884</v>
+        <v>23.631883999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1415.720000</v>
+        <v>1415.72</v>
       </c>
       <c r="AW13" s="1">
-        <v>-302.841000</v>
+        <v>-302.84100000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>85085.766716</v>
+        <v>85085.766715999998</v>
       </c>
       <c r="AZ13" s="1">
-        <v>23.634935</v>
+        <v>23.634934999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1434.410000</v>
+        <v>1434.41</v>
       </c>
       <c r="BB13" s="1">
-        <v>-353.535000</v>
+        <v>-353.53500000000003</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>85096.815631</v>
+        <v>85096.815631000005</v>
       </c>
       <c r="BE13" s="1">
-        <v>23.638004</v>
+        <v>23.638003999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1517.710000</v>
+        <v>1517.71</v>
       </c>
       <c r="BG13" s="1">
-        <v>-594.933000</v>
+        <v>-594.93299999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>85108.053951</v>
+        <v>85108.053950999994</v>
       </c>
       <c r="BJ13" s="1">
         <v>23.641126</v>
       </c>
       <c r="BK13" s="1">
-        <v>1669.390000</v>
+        <v>1669.39</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1026.100000</v>
+        <v>-1026.0999999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>85118.878145</v>
+        <v>85118.878144999995</v>
       </c>
       <c r="BO13" s="1">
         <v>23.644133</v>
       </c>
       <c r="BP13" s="1">
-        <v>1957.880000</v>
+        <v>1957.88</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1770.350000</v>
+        <v>-1770.35</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>85129.899250</v>
+        <v>85129.899250000002</v>
       </c>
       <c r="BT13" s="1">
-        <v>23.647194</v>
+        <v>23.647193999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>2335.100000</v>
+        <v>2335.1</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2629.250000</v>
+        <v>-2629.25</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>85140.421381</v>
+        <v>85140.421380999993</v>
       </c>
       <c r="BY13" s="1">
-        <v>23.650117</v>
+        <v>23.650117000000002</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2807.080000</v>
+        <v>2807.08</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3561.200000</v>
+        <v>-3561.2</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>85152.382900</v>
+        <v>85152.382899999997</v>
       </c>
       <c r="CD13" s="1">
-        <v>23.653440</v>
+        <v>23.65344</v>
       </c>
       <c r="CE13" s="1">
-        <v>4176.150000</v>
+        <v>4176.1499999999996</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5799.230000</v>
+        <v>-5799.23</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>84980.301416</v>
+        <v>84980.301416000002</v>
       </c>
       <c r="B14" s="1">
         <v>23.605639</v>
       </c>
       <c r="C14" s="1">
-        <v>1236.300000</v>
+        <v>1236.3</v>
       </c>
       <c r="D14" s="1">
-        <v>-300.162000</v>
+        <v>-300.16199999999998</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>84990.436634</v>
+        <v>84990.436633999998</v>
       </c>
       <c r="G14" s="1">
-        <v>23.608455</v>
+        <v>23.608454999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1261.150000</v>
+        <v>1261.1500000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-260.133000</v>
+        <v>-260.13299999999998</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>85000.832813</v>
+        <v>85000.832813000001</v>
       </c>
       <c r="L14" s="1">
         <v>23.611342</v>
       </c>
       <c r="M14" s="1">
-        <v>1297.430000</v>
+        <v>1297.43</v>
       </c>
       <c r="N14" s="1">
-        <v>-199.377000</v>
+        <v>-199.37700000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>85011.024081</v>
+        <v>85011.024080999996</v>
       </c>
       <c r="Q14" s="1">
-        <v>23.614173</v>
+        <v>23.614173000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1309.180000</v>
+        <v>1309.18</v>
       </c>
       <c r="S14" s="1">
-        <v>-181.273000</v>
+        <v>-181.273</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>85021.523393</v>
+        <v>85021.523392999996</v>
       </c>
       <c r="V14" s="1">
-        <v>23.617090</v>
+        <v>23.617090000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1322.190000</v>
+        <v>1322.19</v>
       </c>
       <c r="X14" s="1">
-        <v>-167.496000</v>
+        <v>-167.49600000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>85032.054464</v>
+        <v>85032.054464000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>23.620015</v>
+        <v>23.620014999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1339.240000</v>
+        <v>1339.24</v>
       </c>
       <c r="AC14" s="1">
-        <v>-164.659000</v>
+        <v>-164.65899999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>85042.582534</v>
+        <v>85042.582534000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>23.622940</v>
+        <v>23.62294</v>
       </c>
       <c r="AG14" s="1">
-        <v>1351.690000</v>
+        <v>1351.69</v>
       </c>
       <c r="AH14" s="1">
-        <v>-173.684000</v>
+        <v>-173.684</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>85053.435991</v>
+        <v>85053.435991000006</v>
       </c>
       <c r="AK14" s="1">
         <v>23.625954</v>
       </c>
       <c r="AL14" s="1">
-        <v>1371.450000</v>
+        <v>1371.45</v>
       </c>
       <c r="AM14" s="1">
-        <v>-202.223000</v>
+        <v>-202.22300000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>85064.177391</v>
+        <v>85064.177391000005</v>
       </c>
       <c r="AP14" s="1">
-        <v>23.628938</v>
+        <v>23.628938000000002</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1392.160000</v>
+        <v>1392.16</v>
       </c>
       <c r="AR14" s="1">
-        <v>-244.577000</v>
+        <v>-244.577</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>85075.148010</v>
+        <v>85075.148010000004</v>
       </c>
       <c r="AU14" s="1">
-        <v>23.631986</v>
+        <v>23.631986000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1415.720000</v>
+        <v>1415.72</v>
       </c>
       <c r="AW14" s="1">
-        <v>-302.848000</v>
+        <v>-302.84800000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>85086.128798</v>
+        <v>85086.128798000005</v>
       </c>
       <c r="AZ14" s="1">
-        <v>23.635036</v>
+        <v>23.635035999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1434.440000</v>
+        <v>1434.44</v>
       </c>
       <c r="BB14" s="1">
-        <v>-353.553000</v>
+        <v>-353.553</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>85097.178671</v>
+        <v>85097.178671000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>23.638105</v>
+        <v>23.638104999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1517.660000</v>
+        <v>1517.66</v>
       </c>
       <c r="BG14" s="1">
-        <v>-594.931000</v>
+        <v>-594.93100000000004</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>85108.741438</v>
+        <v>85108.741437999997</v>
       </c>
       <c r="BJ14" s="1">
-        <v>23.641317</v>
+        <v>23.641317000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1669.370000</v>
+        <v>1669.37</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1026.070000</v>
+        <v>-1026.07</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>85119.297761</v>
+        <v>85119.297760999994</v>
       </c>
       <c r="BO14" s="1">
-        <v>23.644249</v>
+        <v>23.644248999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1957.840000</v>
+        <v>1957.84</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1770.320000</v>
+        <v>-1770.32</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>85130.009362</v>
+        <v>85130.009361999997</v>
       </c>
       <c r="BT14" s="1">
-        <v>23.647225</v>
+        <v>23.647224999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>2334.410000</v>
+        <v>2334.41</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2629.160000</v>
+        <v>-2629.16</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>85140.842979</v>
+        <v>85140.842978999994</v>
       </c>
       <c r="BY14" s="1">
-        <v>23.650234</v>
+        <v>23.650234000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2806.780000</v>
+        <v>2806.78</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3560.940000</v>
+        <v>-3560.94</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>85152.898740</v>
+        <v>85152.898740000004</v>
       </c>
       <c r="CD14" s="1">
-        <v>23.653583</v>
+        <v>23.653583000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>4175.960000</v>
+        <v>4175.96</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5798.800000</v>
+        <v>-5798.8</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>84980.568759</v>
+        <v>84980.568759000002</v>
       </c>
       <c r="B15" s="1">
-        <v>23.605714</v>
+        <v>23.605713999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1235.930000</v>
+        <v>1235.93</v>
       </c>
       <c r="D15" s="1">
-        <v>-300.310000</v>
+        <v>-300.31</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>84990.674218</v>
@@ -3837,345 +4253,345 @@
         <v>23.608521</v>
       </c>
       <c r="H15" s="1">
-        <v>1261.140000</v>
+        <v>1261.1400000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-260.089000</v>
+        <v>-260.089</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>85001.178989</v>
+        <v>85001.178989000007</v>
       </c>
       <c r="L15" s="1">
-        <v>23.611439</v>
+        <v>23.611439000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1297.280000</v>
+        <v>1297.28</v>
       </c>
       <c r="N15" s="1">
-        <v>-199.175000</v>
+        <v>-199.17500000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>85011.373759</v>
+        <v>85011.373758999995</v>
       </c>
       <c r="Q15" s="1">
-        <v>23.614270</v>
+        <v>23.614270000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1309.260000</v>
+        <v>1309.26</v>
       </c>
       <c r="S15" s="1">
-        <v>-181.255000</v>
+        <v>-181.255</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>85021.867158</v>
+        <v>85021.867157999994</v>
       </c>
       <c r="V15" s="1">
-        <v>23.617185</v>
+        <v>23.617184999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1322.330000</v>
+        <v>1322.33</v>
       </c>
       <c r="X15" s="1">
-        <v>-167.336000</v>
+        <v>-167.33600000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>85032.752819</v>
+        <v>85032.752819000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>23.620209</v>
+        <v>23.620208999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1339.270000</v>
+        <v>1339.27</v>
       </c>
       <c r="AC15" s="1">
-        <v>-164.666000</v>
+        <v>-164.666</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>85043.267509</v>
+        <v>85043.267508999998</v>
       </c>
       <c r="AF15" s="1">
-        <v>23.623130</v>
+        <v>23.62313</v>
       </c>
       <c r="AG15" s="1">
-        <v>1351.750000</v>
+        <v>1351.75</v>
       </c>
       <c r="AH15" s="1">
-        <v>-173.616000</v>
+        <v>-173.61600000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>85053.782199</v>
+        <v>85053.782198999994</v>
       </c>
       <c r="AK15" s="1">
         <v>23.626051</v>
       </c>
       <c r="AL15" s="1">
-        <v>1371.420000</v>
+        <v>1371.42</v>
       </c>
       <c r="AM15" s="1">
-        <v>-202.202000</v>
+        <v>-202.202</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>85064.535465</v>
+        <v>85064.535464999994</v>
       </c>
       <c r="AP15" s="1">
-        <v>23.629038</v>
+        <v>23.629038000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1392.140000</v>
+        <v>1392.14</v>
       </c>
       <c r="AR15" s="1">
-        <v>-244.625000</v>
+        <v>-244.625</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>85075.513916</v>
+        <v>85075.513915999996</v>
       </c>
       <c r="AU15" s="1">
-        <v>23.632087</v>
+        <v>23.632086999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1415.750000</v>
+        <v>1415.75</v>
       </c>
       <c r="AW15" s="1">
-        <v>-302.862000</v>
+        <v>-302.86200000000002</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>85086.796419</v>
+        <v>85086.796419000006</v>
       </c>
       <c r="AZ15" s="1">
-        <v>23.635221</v>
+        <v>23.635221000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1434.400000</v>
+        <v>1434.4</v>
       </c>
       <c r="BB15" s="1">
-        <v>-353.562000</v>
+        <v>-353.56200000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>85097.856700</v>
+        <v>85097.856700000004</v>
       </c>
       <c r="BE15" s="1">
-        <v>23.638294</v>
+        <v>23.638293999999998</v>
       </c>
       <c r="BF15" s="1">
-        <v>1517.720000</v>
+        <v>1517.72</v>
       </c>
       <c r="BG15" s="1">
-        <v>-594.958000</v>
+        <v>-594.95799999999997</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>85108.850526</v>
+        <v>85108.850525999995</v>
       </c>
       <c r="BJ15" s="1">
         <v>23.641347</v>
       </c>
       <c r="BK15" s="1">
-        <v>1669.400000</v>
+        <v>1669.4</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1026.110000</v>
+        <v>-1026.1099999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>85119.512561</v>
+        <v>85119.512560999996</v>
       </c>
       <c r="BO15" s="1">
         <v>23.644309</v>
       </c>
       <c r="BP15" s="1">
-        <v>1957.870000</v>
+        <v>1957.87</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1770.440000</v>
+        <v>-1770.44</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>85130.435460</v>
+        <v>85130.435459999993</v>
       </c>
       <c r="BT15" s="1">
-        <v>23.647343</v>
+        <v>23.647342999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>2334.260000</v>
+        <v>2334.2600000000002</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2628.280000</v>
+        <v>-2628.28</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>85141.263587</v>
+        <v>85141.263586999994</v>
       </c>
       <c r="BY15" s="1">
-        <v>23.650351</v>
+        <v>23.650351000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2807.100000</v>
+        <v>2807.1</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3560.980000</v>
+        <v>-3560.98</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>85153.450291</v>
+        <v>85153.450291000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>23.653736</v>
+        <v>23.653735999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>4181.240000</v>
+        <v>4181.24</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5792.060000</v>
+        <v>-5792.06</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>84980.911463</v>
+        <v>84980.911462999997</v>
       </c>
       <c r="B16" s="1">
-        <v>23.605809</v>
+        <v>23.605809000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>1236.170000</v>
+        <v>1236.17</v>
       </c>
       <c r="D16" s="1">
-        <v>-300.438000</v>
+        <v>-300.43799999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>84991.021419</v>
+        <v>84991.021418999997</v>
       </c>
       <c r="G16" s="1">
-        <v>23.608617</v>
+        <v>23.608616999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>1261.730000</v>
+        <v>1261.73</v>
       </c>
       <c r="I16" s="1">
-        <v>-259.671000</v>
+        <v>-259.67099999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>85001.523211</v>
+        <v>85001.523211000007</v>
       </c>
       <c r="L16" s="1">
-        <v>23.611534</v>
+        <v>23.611533999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1297.030000</v>
+        <v>1297.03</v>
       </c>
       <c r="N16" s="1">
-        <v>-199.202000</v>
+        <v>-199.202</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>85012.069647</v>
+        <v>85012.069646999997</v>
       </c>
       <c r="Q16" s="1">
-        <v>23.614464</v>
+        <v>23.614464000000002</v>
       </c>
       <c r="R16" s="1">
-        <v>1309.190000</v>
+        <v>1309.19</v>
       </c>
       <c r="S16" s="1">
-        <v>-181.378000</v>
+        <v>-181.37799999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>85022.555072</v>
+        <v>85022.555072000003</v>
       </c>
       <c r="V16" s="1">
         <v>23.617376</v>
       </c>
       <c r="W16" s="1">
-        <v>1322.050000</v>
+        <v>1322.05</v>
       </c>
       <c r="X16" s="1">
-        <v>-167.718000</v>
+        <v>-167.71799999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>85033.102002</v>
       </c>
       <c r="AA16" s="1">
-        <v>23.620306</v>
+        <v>23.620305999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1339.180000</v>
+        <v>1339.18</v>
       </c>
       <c r="AC16" s="1">
-        <v>-164.643000</v>
+        <v>-164.643</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>85043.608756</v>
+        <v>85043.608756000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>23.623225</v>
+        <v>23.623225000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>1351.630000</v>
+        <v>1351.63</v>
       </c>
       <c r="AH16" s="1">
-        <v>-173.632000</v>
+        <v>-173.63200000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>85054.130888</v>
@@ -4184,557 +4600,557 @@
         <v>23.626147</v>
       </c>
       <c r="AL16" s="1">
-        <v>1371.440000</v>
+        <v>1371.44</v>
       </c>
       <c r="AM16" s="1">
-        <v>-202.238000</v>
+        <v>-202.238</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>85065.211048</v>
+        <v>85065.211047999997</v>
       </c>
       <c r="AP16" s="1">
-        <v>23.629225</v>
+        <v>23.629225000000002</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1392.130000</v>
+        <v>1392.13</v>
       </c>
       <c r="AR16" s="1">
-        <v>-244.578000</v>
+        <v>-244.578</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>85076.192975</v>
+        <v>85076.192974999998</v>
       </c>
       <c r="AU16" s="1">
-        <v>23.632276</v>
+        <v>23.632276000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1415.720000</v>
+        <v>1415.72</v>
       </c>
       <c r="AW16" s="1">
-        <v>-302.841000</v>
+        <v>-302.84100000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>85087.202138</v>
+        <v>85087.202137999993</v>
       </c>
       <c r="AZ16" s="1">
         <v>23.635334</v>
       </c>
       <c r="BA16" s="1">
-        <v>1434.430000</v>
+        <v>1434.43</v>
       </c>
       <c r="BB16" s="1">
-        <v>-353.559000</v>
+        <v>-353.55900000000003</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>85098.283756</v>
+        <v>85098.283756000004</v>
       </c>
       <c r="BE16" s="1">
-        <v>23.638412</v>
+        <v>23.638411999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1517.670000</v>
+        <v>1517.67</v>
       </c>
       <c r="BG16" s="1">
-        <v>-594.878000</v>
+        <v>-594.87800000000004</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>85109.207150</v>
+        <v>85109.207150000002</v>
       </c>
       <c r="BJ16" s="1">
-        <v>23.641446</v>
+        <v>23.641445999999998</v>
       </c>
       <c r="BK16" s="1">
-        <v>1669.400000</v>
+        <v>1669.4</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1026.030000</v>
+        <v>-1026.03</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>85119.930160</v>
+        <v>85119.930160000004</v>
       </c>
       <c r="BO16" s="1">
-        <v>23.644425</v>
+        <v>23.644424999999998</v>
       </c>
       <c r="BP16" s="1">
-        <v>1957.930000</v>
+        <v>1957.93</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1770.470000</v>
+        <v>-1770.47</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>85130.863505</v>
+        <v>85130.863505000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>23.647462</v>
+        <v>23.647462000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>2334.120000</v>
+        <v>2334.12</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2627.570000</v>
+        <v>-2627.57</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>85141.718915</v>
+        <v>85141.718915000005</v>
       </c>
       <c r="BY16" s="1">
-        <v>23.650477</v>
+        <v>23.650476999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2806.650000</v>
+        <v>2806.65</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3560.990000</v>
+        <v>-3560.99</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>85153.977043</v>
+        <v>85153.977043000006</v>
       </c>
       <c r="CD16" s="1">
         <v>23.653883</v>
       </c>
       <c r="CE16" s="1">
-        <v>4170.710000</v>
+        <v>4170.71</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5804.180000</v>
+        <v>-5804.18</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>84981.251223</v>
+        <v>84981.251222999999</v>
       </c>
       <c r="B17" s="1">
-        <v>23.605903</v>
+        <v>23.605903000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1236.210000</v>
+        <v>1236.21</v>
       </c>
       <c r="D17" s="1">
-        <v>-300.395000</v>
+        <v>-300.39499999999998</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>84991.710361</v>
+        <v>84991.710361000005</v>
       </c>
       <c r="G17" s="1">
         <v>23.608808</v>
       </c>
       <c r="H17" s="1">
-        <v>1260.680000</v>
+        <v>1260.68</v>
       </c>
       <c r="I17" s="1">
-        <v>-260.686000</v>
+        <v>-260.68599999999998</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>85002.216619</v>
+        <v>85002.216618999999</v>
       </c>
       <c r="L17" s="1">
-        <v>23.611727</v>
+        <v>23.611726999999998</v>
       </c>
       <c r="M17" s="1">
-        <v>1297.270000</v>
+        <v>1297.27</v>
       </c>
       <c r="N17" s="1">
-        <v>-199.357000</v>
+        <v>-199.357</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>85012.419829</v>
+        <v>85012.419829000006</v>
       </c>
       <c r="Q17" s="1">
-        <v>23.614561</v>
+        <v>23.614560999999998</v>
       </c>
       <c r="R17" s="1">
-        <v>1309.160000</v>
+        <v>1309.1600000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-181.308000</v>
+        <v>-181.30799999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>85022.896817</v>
+        <v>85022.896817000001</v>
       </c>
       <c r="V17" s="1">
-        <v>23.617471</v>
+        <v>23.617470999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>1322.220000</v>
+        <v>1322.22</v>
       </c>
       <c r="X17" s="1">
-        <v>-167.440000</v>
+        <v>-167.44</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>85033.451682</v>
+        <v>85033.451681999999</v>
       </c>
       <c r="AA17" s="1">
         <v>23.620403</v>
       </c>
       <c r="AB17" s="1">
-        <v>1339.430000</v>
+        <v>1339.43</v>
       </c>
       <c r="AC17" s="1">
-        <v>-164.838000</v>
+        <v>-164.83799999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>85043.954504</v>
+        <v>85043.954503999994</v>
       </c>
       <c r="AF17" s="1">
-        <v>23.623321</v>
+        <v>23.623321000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1351.690000</v>
+        <v>1351.69</v>
       </c>
       <c r="AH17" s="1">
-        <v>-173.707000</v>
+        <v>-173.70699999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>85054.798007</v>
+        <v>85054.798007000005</v>
       </c>
       <c r="AK17" s="1">
-        <v>23.626333</v>
+        <v>23.626332999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1371.430000</v>
+        <v>1371.43</v>
       </c>
       <c r="AM17" s="1">
-        <v>-202.201000</v>
+        <v>-202.20099999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>85065.637080</v>
+        <v>85065.63708</v>
       </c>
       <c r="AP17" s="1">
         <v>23.629344</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1392.120000</v>
+        <v>1392.12</v>
       </c>
       <c r="AR17" s="1">
-        <v>-244.591000</v>
+        <v>-244.59100000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>85076.595192</v>
+        <v>85076.595191999993</v>
       </c>
       <c r="AU17" s="1">
-        <v>23.632388</v>
+        <v>23.632387999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1415.730000</v>
+        <v>1415.73</v>
       </c>
       <c r="AW17" s="1">
-        <v>-302.838000</v>
+        <v>-302.83800000000002</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>85087.590010</v>
+        <v>85087.59001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>23.635442</v>
+        <v>23.635442000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1434.420000</v>
+        <v>1434.42</v>
       </c>
       <c r="BB17" s="1">
-        <v>-353.552000</v>
+        <v>-353.55200000000002</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>85098.643851</v>
+        <v>85098.643851000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>23.638512</v>
+        <v>23.638511999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1517.710000</v>
+        <v>1517.71</v>
       </c>
       <c r="BG17" s="1">
-        <v>-594.887000</v>
+        <v>-594.88699999999994</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>85109.584637</v>
+        <v>85109.584637000007</v>
       </c>
       <c r="BJ17" s="1">
         <v>23.641551</v>
       </c>
       <c r="BK17" s="1">
-        <v>1669.400000</v>
+        <v>1669.4</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1026.070000</v>
+        <v>-1026.07</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>85120.361184</v>
+        <v>85120.361183999994</v>
       </c>
       <c r="BO17" s="1">
-        <v>23.644545</v>
+        <v>23.644545000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1957.930000</v>
+        <v>1957.93</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1770.270000</v>
+        <v>-1770.27</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>85131.293504</v>
+        <v>85131.293504000001</v>
       </c>
       <c r="BT17" s="1">
         <v>23.647582</v>
       </c>
       <c r="BU17" s="1">
-        <v>2333.840000</v>
+        <v>2333.84</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2626.820000</v>
+        <v>-2626.82</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>85142.133570</v>
+        <v>85142.133570000005</v>
       </c>
       <c r="BY17" s="1">
-        <v>23.650593</v>
+        <v>23.650593000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2806.480000</v>
+        <v>2806.48</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3560.890000</v>
+        <v>-3560.89</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>85154.498835</v>
+        <v>85154.498835000006</v>
       </c>
       <c r="CD17" s="1">
-        <v>23.654027</v>
+        <v>23.654026999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>4181.750000</v>
+        <v>4181.75</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5813.410000</v>
+        <v>-5813.41</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>84981.933254</v>
+        <v>84981.933254000003</v>
       </c>
       <c r="B18" s="1">
-        <v>23.606093</v>
+        <v>23.606093000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1236.130000</v>
+        <v>1236.1300000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-300.280000</v>
+        <v>-300.27999999999997</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>84992.055081</v>
+        <v>84992.055080999999</v>
       </c>
       <c r="G18" s="1">
-        <v>23.608904</v>
+        <v>23.608903999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>1261.340000</v>
+        <v>1261.3399999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-260.187000</v>
+        <v>-260.18700000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>85002.563323</v>
+        <v>85002.563322999995</v>
       </c>
       <c r="L18" s="1">
-        <v>23.611823</v>
+        <v>23.611823000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1297.180000</v>
+        <v>1297.18</v>
       </c>
       <c r="N18" s="1">
-        <v>-199.242000</v>
+        <v>-199.24199999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>85012.768519</v>
+        <v>85012.768519000005</v>
       </c>
       <c r="Q18" s="1">
-        <v>23.614658</v>
+        <v>23.614657999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1309.120000</v>
+        <v>1309.1199999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-181.258000</v>
+        <v>-181.25800000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>85023.242527</v>
+        <v>85023.242526999995</v>
       </c>
       <c r="V18" s="1">
-        <v>23.617567</v>
+        <v>23.617567000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1322.190000</v>
+        <v>1322.19</v>
       </c>
       <c r="X18" s="1">
-        <v>-167.542000</v>
+        <v>-167.542</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>85034.111889</v>
+        <v>85034.111889000007</v>
       </c>
       <c r="AA18" s="1">
         <v>23.620587</v>
       </c>
       <c r="AB18" s="1">
-        <v>1339.190000</v>
+        <v>1339.19</v>
       </c>
       <c r="AC18" s="1">
-        <v>-164.685000</v>
+        <v>-164.685</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>85044.606707</v>
+        <v>85044.606706999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>23.623502</v>
+        <v>23.623501999999998</v>
       </c>
       <c r="AG18" s="1">
-        <v>1351.720000</v>
+        <v>1351.72</v>
       </c>
       <c r="AH18" s="1">
-        <v>-173.725000</v>
+        <v>-173.72499999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>85055.176949</v>
+        <v>85055.176949000001</v>
       </c>
       <c r="AK18" s="1">
         <v>23.626438</v>
       </c>
       <c r="AL18" s="1">
-        <v>1371.410000</v>
+        <v>1371.41</v>
       </c>
       <c r="AM18" s="1">
-        <v>-202.179000</v>
+        <v>-202.179</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>85065.999655</v>
+        <v>85065.999655000007</v>
       </c>
       <c r="AP18" s="1">
-        <v>23.629444</v>
+        <v>23.629443999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1392.200000</v>
+        <v>1392.2</v>
       </c>
       <c r="AR18" s="1">
-        <v>-244.595000</v>
+        <v>-244.595</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>85076.971684</v>
+        <v>85076.971684000004</v>
       </c>
       <c r="AU18" s="1">
-        <v>23.632492</v>
+        <v>23.632491999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1415.720000</v>
+        <v>1415.72</v>
       </c>
       <c r="AW18" s="1">
-        <v>-302.842000</v>
+        <v>-302.84199999999998</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>85087.946893</v>
@@ -4743,1313 +5159,1313 @@
         <v>23.635541</v>
       </c>
       <c r="BA18" s="1">
-        <v>1434.430000</v>
+        <v>1434.43</v>
       </c>
       <c r="BB18" s="1">
-        <v>-353.567000</v>
+        <v>-353.56700000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>85099.003451</v>
+        <v>85099.003450999997</v>
       </c>
       <c r="BE18" s="1">
-        <v>23.638612</v>
+        <v>23.638611999999998</v>
       </c>
       <c r="BF18" s="1">
-        <v>1517.690000</v>
+        <v>1517.69</v>
       </c>
       <c r="BG18" s="1">
-        <v>-594.941000</v>
+        <v>-594.94100000000003</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>85110.009180</v>
+        <v>85110.009179999994</v>
       </c>
       <c r="BJ18" s="1">
         <v>23.641669</v>
       </c>
       <c r="BK18" s="1">
-        <v>1669.360000</v>
+        <v>1669.36</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1026.060000</v>
+        <v>-1026.06</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>85120.750544</v>
+        <v>85120.750543999995</v>
       </c>
       <c r="BO18" s="1">
-        <v>23.644653</v>
+        <v>23.644653000000002</v>
       </c>
       <c r="BP18" s="1">
-        <v>1957.850000</v>
+        <v>1957.85</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1770.250000</v>
+        <v>-1770.25</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>85131.706176</v>
+        <v>85131.706176000007</v>
       </c>
       <c r="BT18" s="1">
         <v>23.647696</v>
       </c>
       <c r="BU18" s="1">
-        <v>2334.330000</v>
+        <v>2334.33</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2626.150000</v>
+        <v>-2626.15</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>85142.584434</v>
+        <v>85142.584434000004</v>
       </c>
       <c r="BY18" s="1">
-        <v>23.650718</v>
+        <v>23.650718000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2806.810000</v>
+        <v>2806.81</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3561.340000</v>
+        <v>-3561.34</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>85155.017154</v>
+        <v>85155.017154000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>23.654171</v>
+        <v>23.654171000000002</v>
       </c>
       <c r="CE18" s="1">
-        <v>4189.990000</v>
+        <v>4189.99</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5803.140000</v>
+        <v>-5803.14</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>84982.278934</v>
+        <v>84982.278934000002</v>
       </c>
       <c r="B19" s="1">
-        <v>23.606189</v>
+        <v>23.606189000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1236.080000</v>
+        <v>1236.08</v>
       </c>
       <c r="D19" s="1">
-        <v>-300.386000</v>
+        <v>-300.38600000000002</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>84992.398845</v>
+        <v>84992.398845000003</v>
       </c>
       <c r="G19" s="1">
-        <v>23.609000</v>
+        <v>23.609000000000002</v>
       </c>
       <c r="H19" s="1">
-        <v>1261.220000</v>
+        <v>1261.22</v>
       </c>
       <c r="I19" s="1">
-        <v>-260.585000</v>
+        <v>-260.58499999999998</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>85002.910522</v>
+        <v>85002.910522000006</v>
       </c>
       <c r="L19" s="1">
-        <v>23.611920</v>
+        <v>23.611920000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1297.290000</v>
+        <v>1297.29</v>
       </c>
       <c r="N19" s="1">
-        <v>-199.338000</v>
+        <v>-199.33799999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>85013.429181</v>
       </c>
       <c r="Q19" s="1">
-        <v>23.614841</v>
+        <v>23.614840999999998</v>
       </c>
       <c r="R19" s="1">
-        <v>1309.200000</v>
+        <v>1309.2</v>
       </c>
       <c r="S19" s="1">
-        <v>-181.214000</v>
+        <v>-181.214</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>85023.896750</v>
+        <v>85023.89675</v>
       </c>
       <c r="V19" s="1">
         <v>23.617749</v>
       </c>
       <c r="W19" s="1">
-        <v>1322.150000</v>
+        <v>1322.15</v>
       </c>
       <c r="X19" s="1">
-        <v>-167.858000</v>
+        <v>-167.858</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>85034.494272</v>
+        <v>85034.494271999996</v>
       </c>
       <c r="AA19" s="1">
-        <v>23.620693</v>
+        <v>23.620692999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1339.280000</v>
+        <v>1339.28</v>
       </c>
       <c r="AC19" s="1">
-        <v>-164.741000</v>
+        <v>-164.74100000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>85044.985154</v>
+        <v>85044.985153999995</v>
       </c>
       <c r="AF19" s="1">
         <v>23.623607</v>
       </c>
       <c r="AG19" s="1">
-        <v>1351.760000</v>
+        <v>1351.76</v>
       </c>
       <c r="AH19" s="1">
-        <v>-173.676000</v>
+        <v>-173.67599999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>85055.525638</v>
+        <v>85055.525638000006</v>
       </c>
       <c r="AK19" s="1">
-        <v>23.626535</v>
+        <v>23.626535000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1371.430000</v>
+        <v>1371.43</v>
       </c>
       <c r="AM19" s="1">
-        <v>-202.196000</v>
+        <v>-202.196</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>85066.357270</v>
+        <v>85066.357269999993</v>
       </c>
       <c r="AP19" s="1">
-        <v>23.629544</v>
+        <v>23.629543999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1392.150000</v>
+        <v>1392.15</v>
       </c>
       <c r="AR19" s="1">
-        <v>-244.578000</v>
+        <v>-244.578</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>85077.336711</v>
+        <v>85077.336710999996</v>
       </c>
       <c r="AU19" s="1">
-        <v>23.632594</v>
+        <v>23.632594000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1415.720000</v>
+        <v>1415.72</v>
       </c>
       <c r="AW19" s="1">
-        <v>-302.804000</v>
+        <v>-302.80399999999997</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>85088.376666</v>
+        <v>85088.376665999996</v>
       </c>
       <c r="AZ19" s="1">
-        <v>23.635660</v>
+        <v>23.635660000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1434.440000</v>
+        <v>1434.44</v>
       </c>
       <c r="BB19" s="1">
-        <v>-353.535000</v>
+        <v>-353.53500000000003</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>85099.429037</v>
+        <v>85099.429036999994</v>
       </c>
       <c r="BE19" s="1">
-        <v>23.638730</v>
+        <v>23.638729999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1517.680000</v>
+        <v>1517.68</v>
       </c>
       <c r="BG19" s="1">
-        <v>-594.880000</v>
+        <v>-594.88</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>85110.343980</v>
+        <v>85110.343980000005</v>
       </c>
       <c r="BJ19" s="1">
         <v>23.641762</v>
       </c>
       <c r="BK19" s="1">
-        <v>1669.370000</v>
+        <v>1669.37</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1026.040000</v>
+        <v>-1026.04</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>85121.146351</v>
+        <v>85121.146351000003</v>
       </c>
       <c r="BO19" s="1">
-        <v>23.644763</v>
+        <v>23.644763000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1957.850000</v>
+        <v>1957.85</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1770.390000</v>
+        <v>-1770.39</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>85132.135215</v>
+        <v>85132.135215000002</v>
       </c>
       <c r="BT19" s="1">
-        <v>23.647815</v>
+        <v>23.647815000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>2334.340000</v>
+        <v>2334.34</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2625.510000</v>
+        <v>-2625.51</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>85143.008810</v>
+        <v>85143.008809999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>23.650836</v>
+        <v>23.650836000000002</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2807.200000</v>
+        <v>2807.2</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3561.090000</v>
+        <v>-3561.09</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>85155.532528</v>
+        <v>85155.532527999996</v>
       </c>
       <c r="CD19" s="1">
         <v>23.654315</v>
       </c>
       <c r="CE19" s="1">
-        <v>4186.750000</v>
+        <v>4186.75</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5813.760000</v>
+        <v>-5813.76</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>84982.618196</v>
+        <v>84982.618195999996</v>
       </c>
       <c r="B20" s="1">
-        <v>23.606283</v>
+        <v>23.606283000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1235.970000</v>
+        <v>1235.97</v>
       </c>
       <c r="D20" s="1">
-        <v>-300.328000</v>
+        <v>-300.32799999999997</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>84993.054024</v>
+        <v>84993.054023999997</v>
       </c>
       <c r="G20" s="1">
-        <v>23.609182</v>
+        <v>23.609182000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1261.480000</v>
+        <v>1261.48</v>
       </c>
       <c r="I20" s="1">
-        <v>-259.538000</v>
+        <v>-259.53800000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>85003.571213</v>
+        <v>85003.571213000003</v>
       </c>
       <c r="L20" s="1">
-        <v>23.612103</v>
+        <v>23.612103000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1297.320000</v>
+        <v>1297.32</v>
       </c>
       <c r="N20" s="1">
-        <v>-199.093000</v>
+        <v>-199.09299999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>85013.813581</v>
+        <v>85013.813580999995</v>
       </c>
       <c r="Q20" s="1">
-        <v>23.614948</v>
+        <v>23.614947999999998</v>
       </c>
       <c r="R20" s="1">
-        <v>1309.240000</v>
+        <v>1309.24</v>
       </c>
       <c r="S20" s="1">
-        <v>-181.273000</v>
+        <v>-181.273</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>85024.271262</v>
+        <v>85024.271261999995</v>
       </c>
       <c r="V20" s="1">
         <v>23.617853</v>
       </c>
       <c r="W20" s="1">
-        <v>1322.210000</v>
+        <v>1322.21</v>
       </c>
       <c r="X20" s="1">
-        <v>-167.574000</v>
+        <v>-167.57400000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>85034.843952</v>
+        <v>85034.843951999996</v>
       </c>
       <c r="AA20" s="1">
-        <v>23.620790</v>
+        <v>23.62079</v>
       </c>
       <c r="AB20" s="1">
-        <v>1339.120000</v>
+        <v>1339.12</v>
       </c>
       <c r="AC20" s="1">
-        <v>-164.590000</v>
+        <v>-164.59</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>85045.325411</v>
+        <v>85045.325410999998</v>
       </c>
       <c r="AF20" s="1">
-        <v>23.623702</v>
+        <v>23.623702000000002</v>
       </c>
       <c r="AG20" s="1">
-        <v>1351.650000</v>
+        <v>1351.65</v>
       </c>
       <c r="AH20" s="1">
-        <v>-173.694000</v>
+        <v>-173.69399999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>85055.874820</v>
+        <v>85055.874819999997</v>
       </c>
       <c r="AK20" s="1">
-        <v>23.626632</v>
+        <v>23.626632000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1371.430000</v>
+        <v>1371.43</v>
       </c>
       <c r="AM20" s="1">
-        <v>-202.188000</v>
+        <v>-202.18799999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>85066.790315</v>
+        <v>85066.790315000006</v>
       </c>
       <c r="AP20" s="1">
-        <v>23.629664</v>
+        <v>23.629663999999998</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1392.150000</v>
+        <v>1392.15</v>
       </c>
       <c r="AR20" s="1">
-        <v>-244.592000</v>
+        <v>-244.59200000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>85077.768268</v>
       </c>
       <c r="AU20" s="1">
-        <v>23.632713</v>
+        <v>23.632712999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1415.750000</v>
+        <v>1415.75</v>
       </c>
       <c r="AW20" s="1">
-        <v>-302.840000</v>
+        <v>-302.83999999999997</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>85088.665369</v>
+        <v>85088.665368999995</v>
       </c>
       <c r="AZ20" s="1">
-        <v>23.635740</v>
+        <v>23.635739999999998</v>
       </c>
       <c r="BA20" s="1">
-        <v>1434.430000</v>
+        <v>1434.43</v>
       </c>
       <c r="BB20" s="1">
-        <v>-353.524000</v>
+        <v>-353.524</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>85099.727114</v>
+        <v>85099.727113999994</v>
       </c>
       <c r="BE20" s="1">
-        <v>23.638813</v>
+        <v>23.638812999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1517.710000</v>
+        <v>1517.71</v>
       </c>
       <c r="BG20" s="1">
-        <v>-594.875000</v>
+        <v>-594.875</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>85110.733339</v>
+        <v>85110.733338999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>23.641870</v>
+        <v>23.641870000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1669.370000</v>
+        <v>1669.37</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1025.970000</v>
+        <v>-1025.97</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>85121.566461</v>
+        <v>85121.566460999995</v>
       </c>
       <c r="BO20" s="1">
-        <v>23.644880</v>
+        <v>23.644880000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1957.880000</v>
+        <v>1957.88</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1770.240000</v>
+        <v>-1770.24</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>85132.546399</v>
+        <v>85132.546398999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>23.647930</v>
+        <v>23.647929999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>2335.220000</v>
+        <v>2335.2199999999998</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2625.480000</v>
+        <v>-2625.48</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>85143.430113</v>
+        <v>85143.430112999995</v>
       </c>
       <c r="BY20" s="1">
-        <v>23.650953</v>
+        <v>23.650953000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2807.130000</v>
+        <v>2807.13</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3560.840000</v>
+        <v>-3560.84</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>85156.614767</v>
+        <v>85156.614767000006</v>
       </c>
       <c r="CD20" s="1">
         <v>23.654615</v>
       </c>
       <c r="CE20" s="1">
-        <v>4169.920000</v>
+        <v>4169.92</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5802.340000</v>
+        <v>-5802.34</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>84983.272918</v>
+        <v>84983.272918000002</v>
       </c>
       <c r="B21" s="1">
         <v>23.606465</v>
       </c>
       <c r="C21" s="1">
-        <v>1235.990000</v>
+        <v>1235.99</v>
       </c>
       <c r="D21" s="1">
-        <v>-300.011000</v>
+        <v>-300.01100000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>84993.433959</v>
+        <v>84993.433959000002</v>
       </c>
       <c r="G21" s="1">
-        <v>23.609287</v>
+        <v>23.609286999999998</v>
       </c>
       <c r="H21" s="1">
-        <v>1261.570000</v>
+        <v>1261.57</v>
       </c>
       <c r="I21" s="1">
-        <v>-259.462000</v>
+        <v>-259.46199999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>85003.945673</v>
+        <v>85003.945672999995</v>
       </c>
       <c r="L21" s="1">
-        <v>23.612207</v>
+        <v>23.612207000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1297.150000</v>
+        <v>1297.1500000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-199.135000</v>
+        <v>-199.13499999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>85014.164279</v>
+        <v>85014.164279000004</v>
       </c>
       <c r="Q21" s="1">
         <v>23.615046</v>
       </c>
       <c r="R21" s="1">
-        <v>1309.240000</v>
+        <v>1309.24</v>
       </c>
       <c r="S21" s="1">
-        <v>-181.351000</v>
+        <v>-181.351</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>85024.617966</v>
+        <v>85024.617966000005</v>
       </c>
       <c r="V21" s="1">
-        <v>23.617949</v>
+        <v>23.617948999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1322.180000</v>
+        <v>1322.18</v>
       </c>
       <c r="X21" s="1">
-        <v>-167.436000</v>
+        <v>-167.43600000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>85035.194623</v>
+        <v>85035.194623000003</v>
       </c>
       <c r="AA21" s="1">
         <v>23.620887</v>
       </c>
       <c r="AB21" s="1">
-        <v>1339.210000</v>
+        <v>1339.21</v>
       </c>
       <c r="AC21" s="1">
-        <v>-164.647000</v>
+        <v>-164.64699999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>85045.670129</v>
+        <v>85045.670129000006</v>
       </c>
       <c r="AF21" s="1">
         <v>23.623797</v>
       </c>
       <c r="AG21" s="1">
-        <v>1351.650000</v>
+        <v>1351.65</v>
       </c>
       <c r="AH21" s="1">
-        <v>-173.702000</v>
+        <v>-173.702</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>85056.302868</v>
+        <v>85056.302867999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>23.626751</v>
+        <v>23.626750999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1371.460000</v>
+        <v>1371.46</v>
       </c>
       <c r="AM21" s="1">
-        <v>-202.188000</v>
+        <v>-202.18799999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>85067.078950</v>
+        <v>85067.078949999996</v>
       </c>
       <c r="AP21" s="1">
-        <v>23.629744</v>
+        <v>23.629743999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1392.140000</v>
+        <v>1392.14</v>
       </c>
       <c r="AR21" s="1">
-        <v>-244.584000</v>
+        <v>-244.584</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>85078.065830</v>
+        <v>85078.065830000007</v>
       </c>
       <c r="AU21" s="1">
-        <v>23.632796</v>
+        <v>23.632795999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1415.750000</v>
+        <v>1415.75</v>
       </c>
       <c r="AW21" s="1">
-        <v>-302.845000</v>
+        <v>-302.84500000000003</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>85089.024440</v>
+        <v>85089.024439999994</v>
       </c>
       <c r="AZ21" s="1">
-        <v>23.635840</v>
+        <v>23.635840000000002</v>
       </c>
       <c r="BA21" s="1">
-        <v>1434.440000</v>
+        <v>1434.44</v>
       </c>
       <c r="BB21" s="1">
-        <v>-353.492000</v>
+        <v>-353.49200000000002</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>85100.085723</v>
+        <v>85100.085722999997</v>
       </c>
       <c r="BE21" s="1">
-        <v>23.638913</v>
+        <v>23.638912999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1517.740000</v>
+        <v>1517.74</v>
       </c>
       <c r="BG21" s="1">
-        <v>-594.891000</v>
+        <v>-594.89099999999996</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>85111.105835</v>
+        <v>85111.105834999995</v>
       </c>
       <c r="BJ21" s="1">
-        <v>23.641974</v>
+        <v>23.641974000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1669.370000</v>
+        <v>1669.37</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1026.010000</v>
+        <v>-1026.01</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>85122.382876</v>
+        <v>85122.382876000003</v>
       </c>
       <c r="BO21" s="1">
-        <v>23.645106</v>
+        <v>23.645105999999998</v>
       </c>
       <c r="BP21" s="1">
-        <v>1957.880000</v>
+        <v>1957.88</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1770.190000</v>
+        <v>-1770.19</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>85132.975438</v>
+        <v>85132.975437999994</v>
       </c>
       <c r="BT21" s="1">
         <v>23.648049</v>
       </c>
       <c r="BU21" s="1">
-        <v>2335.590000</v>
+        <v>2335.59</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2624.620000</v>
+        <v>-2624.62</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>85143.878000</v>
+        <v>85143.877999999997</v>
       </c>
       <c r="BY21" s="1">
-        <v>23.651077</v>
+        <v>23.651077000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2806.530000</v>
+        <v>2806.53</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3561.100000</v>
+        <v>-3561.1</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>85157.145983</v>
+        <v>85157.145982999995</v>
       </c>
       <c r="CD21" s="1">
-        <v>23.654763</v>
+        <v>23.654762999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>4179.640000</v>
+        <v>4179.6400000000003</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5813.500000</v>
+        <v>-5813.5</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>84983.645411</v>
+        <v>84983.645411000005</v>
       </c>
       <c r="B22" s="1">
-        <v>23.606568</v>
+        <v>23.606567999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1236.150000</v>
+        <v>1236.1500000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-300.210000</v>
+        <v>-300.20999999999998</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>84993.777686</v>
+        <v>84993.777686000001</v>
       </c>
       <c r="G22" s="1">
-        <v>23.609383</v>
+        <v>23.609383000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1261.200000</v>
+        <v>1261.2</v>
       </c>
       <c r="I22" s="1">
-        <v>-260.007000</v>
+        <v>-260.00700000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>85004.292872</v>
+        <v>85004.292872000005</v>
       </c>
       <c r="L22" s="1">
-        <v>23.612304</v>
+        <v>23.612304000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>1297.220000</v>
+        <v>1297.22</v>
       </c>
       <c r="N22" s="1">
-        <v>-199.155000</v>
+        <v>-199.155</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>85014.511450</v>
+        <v>85014.511450000005</v>
       </c>
       <c r="Q22" s="1">
-        <v>23.615142</v>
+        <v>23.615141999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1309.060000</v>
+        <v>1309.06</v>
       </c>
       <c r="S22" s="1">
-        <v>-181.313000</v>
+        <v>-181.31299999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>85024.967117</v>
+        <v>85024.967116999993</v>
       </c>
       <c r="V22" s="1">
         <v>23.618046</v>
       </c>
       <c r="W22" s="1">
-        <v>1322.370000</v>
+        <v>1322.37</v>
       </c>
       <c r="X22" s="1">
-        <v>-167.503000</v>
+        <v>-167.50299999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>85035.617711</v>
+        <v>85035.617710999999</v>
       </c>
       <c r="AA22" s="1">
         <v>23.621005</v>
       </c>
       <c r="AB22" s="1">
-        <v>1338.850000</v>
+        <v>1338.85</v>
       </c>
       <c r="AC22" s="1">
-        <v>-164.573000</v>
+        <v>-164.57300000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>85046.141864</v>
+        <v>85046.141864000005</v>
       </c>
       <c r="AF22" s="1">
-        <v>23.623928</v>
+        <v>23.623927999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1351.730000</v>
+        <v>1351.73</v>
       </c>
       <c r="AH22" s="1">
-        <v>-173.657000</v>
+        <v>-173.65700000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>85056.581123</v>
+        <v>85056.581122999996</v>
       </c>
       <c r="AK22" s="1">
         <v>23.626828</v>
       </c>
       <c r="AL22" s="1">
-        <v>1371.410000</v>
+        <v>1371.41</v>
       </c>
       <c r="AM22" s="1">
-        <v>-202.207000</v>
+        <v>-202.20699999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>85067.438549</v>
+        <v>85067.438548999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>23.629844</v>
+        <v>23.629843999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1392.120000</v>
+        <v>1392.12</v>
       </c>
       <c r="AR22" s="1">
-        <v>-244.579000</v>
+        <v>-244.57900000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>85078.428406</v>
+        <v>85078.428406000006</v>
       </c>
       <c r="AU22" s="1">
         <v>23.632897</v>
       </c>
       <c r="AV22" s="1">
-        <v>1415.740000</v>
+        <v>1415.74</v>
       </c>
       <c r="AW22" s="1">
-        <v>-302.839000</v>
+        <v>-302.839</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>85089.383543</v>
+        <v>85089.383543000004</v>
       </c>
       <c r="AZ22" s="1">
-        <v>23.635940</v>
+        <v>23.635940000000002</v>
       </c>
       <c r="BA22" s="1">
-        <v>1434.420000</v>
+        <v>1434.42</v>
       </c>
       <c r="BB22" s="1">
-        <v>-353.537000</v>
+        <v>-353.53699999999998</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>85100.446809</v>
+        <v>85100.446809000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>23.639013</v>
+        <v>23.639012999999998</v>
       </c>
       <c r="BF22" s="1">
-        <v>1517.690000</v>
+        <v>1517.69</v>
       </c>
       <c r="BG22" s="1">
-        <v>-594.880000</v>
+        <v>-594.88</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>85111.857306</v>
+        <v>85111.857306000005</v>
       </c>
       <c r="BJ22" s="1">
-        <v>23.642183</v>
+        <v>23.642182999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1669.360000</v>
+        <v>1669.36</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1026.000000</v>
+        <v>-1026</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>85122.801003</v>
       </c>
       <c r="BO22" s="1">
-        <v>23.645223</v>
+        <v>23.645223000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1957.730000</v>
+        <v>1957.73</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1770.230000</v>
+        <v>-1770.23</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>85133.405005</v>
+        <v>85133.405004999993</v>
       </c>
       <c r="BT22" s="1">
-        <v>23.648168</v>
+        <v>23.648167999999998</v>
       </c>
       <c r="BU22" s="1">
-        <v>2336.270000</v>
+        <v>2336.27</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2624.890000</v>
+        <v>-2624.89</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>85144.305551</v>
+        <v>85144.305550999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>23.651196</v>
+        <v>23.651195999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2806.480000</v>
+        <v>2806.48</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3560.740000</v>
+        <v>-3560.74</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>85157.973309</v>
+        <v>85157.973308999994</v>
       </c>
       <c r="CD22" s="1">
-        <v>23.654993</v>
+        <v>23.654993000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>4190.060000</v>
+        <v>4190.0600000000004</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5804.110000</v>
+        <v>-5804.11</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>84983.990627</v>
+        <v>84983.990627000006</v>
       </c>
       <c r="B23" s="1">
-        <v>23.606664</v>
+        <v>23.606663999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1235.940000</v>
+        <v>1235.94</v>
       </c>
       <c r="D23" s="1">
-        <v>-300.333000</v>
+        <v>-300.33300000000003</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>84994.124391</v>
+        <v>84994.124391000005</v>
       </c>
       <c r="G23" s="1">
         <v>23.609479</v>
       </c>
       <c r="H23" s="1">
-        <v>1260.960000</v>
+        <v>1260.96</v>
       </c>
       <c r="I23" s="1">
-        <v>-260.185000</v>
+        <v>-260.185</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>85004.639575</v>
+        <v>85004.639574999994</v>
       </c>
       <c r="L23" s="1">
-        <v>23.612400</v>
+        <v>23.612400000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1296.960000</v>
+        <v>1296.96</v>
       </c>
       <c r="N23" s="1">
-        <v>-199.331000</v>
+        <v>-199.33099999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>85014.929579</v>
+        <v>85014.929579000003</v>
       </c>
       <c r="Q23" s="1">
-        <v>23.615258</v>
+        <v>23.615258000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1309.110000</v>
+        <v>1309.1099999999999</v>
       </c>
       <c r="S23" s="1">
-        <v>-181.365000</v>
+        <v>-181.36500000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>85025.392684</v>
+        <v>85025.392684000006</v>
       </c>
       <c r="V23" s="1">
-        <v>23.618165</v>
+        <v>23.618165000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1322.120000</v>
+        <v>1322.12</v>
       </c>
       <c r="X23" s="1">
-        <v>-167.617000</v>
+        <v>-167.61699999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>85035.894478</v>
+        <v>85035.894478000002</v>
       </c>
       <c r="AA23" s="1">
-        <v>23.621082</v>
+        <v>23.621082000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1339.310000</v>
+        <v>1339.31</v>
       </c>
       <c r="AC23" s="1">
-        <v>-164.621000</v>
+        <v>-164.62100000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>85046.380898</v>
+        <v>85046.380898000003</v>
       </c>
       <c r="AF23" s="1">
-        <v>23.623995</v>
+        <v>23.623995000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1351.680000</v>
+        <v>1351.68</v>
       </c>
       <c r="AH23" s="1">
-        <v>-173.722000</v>
+        <v>-173.72200000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>85056.929315</v>
+        <v>85056.929315000001</v>
       </c>
       <c r="AK23" s="1">
         <v>23.626925</v>
       </c>
       <c r="AL23" s="1">
-        <v>1371.450000</v>
+        <v>1371.45</v>
       </c>
       <c r="AM23" s="1">
-        <v>-202.203000</v>
+        <v>-202.203</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>85067.799638</v>
+        <v>85067.799637999997</v>
       </c>
       <c r="AP23" s="1">
-        <v>23.629944</v>
+        <v>23.629943999999998</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1392.160000</v>
+        <v>1392.16</v>
       </c>
       <c r="AR23" s="1">
-        <v>-244.588000</v>
+        <v>-244.58799999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>85078.794474</v>
+        <v>85078.794473999995</v>
       </c>
       <c r="AU23" s="1">
-        <v>23.632998</v>
+        <v>23.632998000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1415.740000</v>
+        <v>1415.74</v>
       </c>
       <c r="AW23" s="1">
-        <v>-302.864000</v>
+        <v>-302.86399999999998</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>85090.102248</v>
+        <v>85090.102247999996</v>
       </c>
       <c r="AZ23" s="1">
-        <v>23.636140</v>
+        <v>23.636140000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1434.410000</v>
+        <v>1434.41</v>
       </c>
       <c r="BB23" s="1">
-        <v>-353.516000</v>
+        <v>-353.51600000000002</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>85101.176920</v>
+        <v>85101.176919999998</v>
       </c>
       <c r="BE23" s="1">
-        <v>23.639216</v>
+        <v>23.639216000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1517.710000</v>
+        <v>1517.71</v>
       </c>
       <c r="BG23" s="1">
-        <v>-594.892000</v>
+        <v>-594.89200000000005</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>85112.234761</v>
@@ -6058,619 +6474,619 @@
         <v>23.642287</v>
       </c>
       <c r="BK23" s="1">
-        <v>1669.380000</v>
+        <v>1669.38</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1025.920000</v>
+        <v>-1025.92</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>85123.198795</v>
+        <v>85123.198795000004</v>
       </c>
       <c r="BO23" s="1">
-        <v>23.645333</v>
+        <v>23.645333000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1957.690000</v>
+        <v>1957.69</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1770.180000</v>
+        <v>-1770.18</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>85133.816653</v>
+        <v>85133.816653000002</v>
       </c>
       <c r="BT23" s="1">
-        <v>23.648282</v>
+        <v>23.648281999999998</v>
       </c>
       <c r="BU23" s="1">
-        <v>2336.990000</v>
+        <v>2336.9899999999998</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2624.740000</v>
+        <v>-2624.74</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>85145.037150</v>
+        <v>85145.037150000004</v>
       </c>
       <c r="BY23" s="1">
-        <v>23.651399</v>
+        <v>23.651399000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2806.970000</v>
+        <v>2806.97</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3560.830000</v>
+        <v>-3560.83</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>85158.181141</v>
+        <v>85158.181140999994</v>
       </c>
       <c r="CD23" s="1">
-        <v>23.655050</v>
+        <v>23.655049999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>4180.390000</v>
+        <v>4180.3900000000003</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5795.220000</v>
+        <v>-5795.22</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>84984.331874</v>
+        <v>84984.331873999996</v>
       </c>
       <c r="B24" s="1">
         <v>23.606759</v>
       </c>
       <c r="C24" s="1">
-        <v>1236.010000</v>
+        <v>1236.01</v>
       </c>
       <c r="D24" s="1">
-        <v>-300.121000</v>
+        <v>-300.12099999999998</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>84994.551482</v>
+        <v>84994.551481999995</v>
       </c>
       <c r="G24" s="1">
-        <v>23.609598</v>
+        <v>23.609597999999998</v>
       </c>
       <c r="H24" s="1">
-        <v>1261.470000</v>
+        <v>1261.47</v>
       </c>
       <c r="I24" s="1">
-        <v>-260.245000</v>
+        <v>-260.245</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>85005.065177</v>
+        <v>85005.065176999997</v>
       </c>
       <c r="L24" s="1">
-        <v>23.612518</v>
+        <v>23.612518000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1297.540000</v>
+        <v>1297.54</v>
       </c>
       <c r="N24" s="1">
-        <v>-199.086000</v>
+        <v>-199.08600000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>85015.221723</v>
+        <v>85015.221722999995</v>
       </c>
       <c r="Q24" s="1">
-        <v>23.615339</v>
+        <v>23.615338999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1309.070000</v>
+        <v>1309.07</v>
       </c>
       <c r="S24" s="1">
-        <v>-181.183000</v>
+        <v>-181.18299999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>85025.668957</v>
+        <v>85025.668957000002</v>
       </c>
       <c r="V24" s="1">
-        <v>23.618241</v>
+        <v>23.618241000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1321.950000</v>
+        <v>1321.95</v>
       </c>
       <c r="X24" s="1">
-        <v>-167.497000</v>
+        <v>-167.49700000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>85036.245689</v>
+        <v>85036.245689000003</v>
       </c>
       <c r="AA24" s="1">
-        <v>23.621179</v>
+        <v>23.621179000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1339.250000</v>
+        <v>1339.25</v>
       </c>
       <c r="AC24" s="1">
-        <v>-164.656000</v>
+        <v>-164.65600000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>85046.725154</v>
       </c>
       <c r="AF24" s="1">
-        <v>23.624090</v>
+        <v>23.624089999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1351.640000</v>
+        <v>1351.64</v>
       </c>
       <c r="AH24" s="1">
-        <v>-173.641000</v>
+        <v>-173.64099999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>85057.279987</v>
+        <v>85057.279987000002</v>
       </c>
       <c r="AK24" s="1">
         <v>23.627022</v>
       </c>
       <c r="AL24" s="1">
-        <v>1371.410000</v>
+        <v>1371.41</v>
       </c>
       <c r="AM24" s="1">
-        <v>-202.190000</v>
+        <v>-202.19</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>85068.520856</v>
+        <v>85068.520856000003</v>
       </c>
       <c r="AP24" s="1">
-        <v>23.630145</v>
+        <v>23.630144999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1392.140000</v>
+        <v>1392.14</v>
       </c>
       <c r="AR24" s="1">
-        <v>-244.603000</v>
+        <v>-244.60300000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>85079.523077</v>
+        <v>85079.523077000005</v>
       </c>
       <c r="AU24" s="1">
         <v>23.633201</v>
       </c>
       <c r="AV24" s="1">
-        <v>1415.760000</v>
+        <v>1415.76</v>
       </c>
       <c r="AW24" s="1">
-        <v>-302.835000</v>
+        <v>-302.83499999999998</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>85090.482183</v>
       </c>
       <c r="AZ24" s="1">
-        <v>23.636245</v>
+        <v>23.636244999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1434.420000</v>
+        <v>1434.42</v>
       </c>
       <c r="BB24" s="1">
-        <v>-353.509000</v>
+        <v>-353.50900000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>85101.554376</v>
       </c>
       <c r="BE24" s="1">
-        <v>23.639321</v>
+        <v>23.639320999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1517.700000</v>
+        <v>1517.7</v>
       </c>
       <c r="BG24" s="1">
-        <v>-594.905000</v>
+        <v>-594.90499999999997</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>85112.609706</v>
+        <v>85112.609706000003</v>
       </c>
       <c r="BJ24" s="1">
-        <v>23.642392</v>
+        <v>23.642392000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1669.330000</v>
+        <v>1669.33</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1025.980000</v>
+        <v>-1025.98</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>85123.930428</v>
+        <v>85123.930428000007</v>
       </c>
       <c r="BO24" s="1">
         <v>23.645536</v>
       </c>
       <c r="BP24" s="1">
-        <v>1957.750000</v>
+        <v>1957.75</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1770.110000</v>
+        <v>-1770.11</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>85134.567627</v>
+        <v>85134.567626999997</v>
       </c>
       <c r="BT24" s="1">
         <v>23.648491</v>
       </c>
       <c r="BU24" s="1">
-        <v>2337.300000</v>
+        <v>2337.3000000000002</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2625.590000</v>
+        <v>-2625.59</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>85145.179039</v>
+        <v>85145.179038999995</v>
       </c>
       <c r="BY24" s="1">
         <v>23.651439</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2806.950000</v>
+        <v>2806.95</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3560.820000</v>
+        <v>-3560.82</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>85158.701436</v>
+        <v>85158.701436000003</v>
       </c>
       <c r="CD24" s="1">
-        <v>23.655195</v>
+        <v>23.655194999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>4186.200000</v>
+        <v>4186.2</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5794.490000</v>
+        <v>-5794.49</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>84984.764882</v>
+        <v>84984.764882000003</v>
       </c>
       <c r="B25" s="1">
-        <v>23.606879</v>
+        <v>23.606878999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1236.340000</v>
+        <v>1236.3399999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-300.111000</v>
+        <v>-300.11099999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>84994.826726</v>
+        <v>84994.826725999999</v>
       </c>
       <c r="G25" s="1">
-        <v>23.609674</v>
+        <v>23.609673999999998</v>
       </c>
       <c r="H25" s="1">
-        <v>1261.500000</v>
+        <v>1261.5</v>
       </c>
       <c r="I25" s="1">
-        <v>-260.087000</v>
+        <v>-260.08699999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>85005.350343</v>
+        <v>85005.350342999998</v>
       </c>
       <c r="L25" s="1">
-        <v>23.612597</v>
+        <v>23.612597000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1297.240000</v>
+        <v>1297.24</v>
       </c>
       <c r="N25" s="1">
-        <v>-199.266000</v>
+        <v>-199.26599999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>85015.565945</v>
+        <v>85015.565944999995</v>
       </c>
       <c r="Q25" s="1">
-        <v>23.615435</v>
+        <v>23.615435000000002</v>
       </c>
       <c r="R25" s="1">
-        <v>1309.190000</v>
+        <v>1309.19</v>
       </c>
       <c r="S25" s="1">
-        <v>-181.232000</v>
+        <v>-181.232</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>85026.011729</v>
+        <v>85026.011729000005</v>
       </c>
       <c r="V25" s="1">
         <v>23.618337</v>
       </c>
       <c r="W25" s="1">
-        <v>1322.160000</v>
+        <v>1322.16</v>
       </c>
       <c r="X25" s="1">
-        <v>-167.731000</v>
+        <v>-167.73099999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>85036.594333</v>
+        <v>85036.594333000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>23.621276</v>
+        <v>23.621276000000002</v>
       </c>
       <c r="AB25" s="1">
-        <v>1339.200000</v>
+        <v>1339.2</v>
       </c>
       <c r="AC25" s="1">
-        <v>-164.638000</v>
+        <v>-164.63800000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>85047.413567</v>
+        <v>85047.413566999996</v>
       </c>
       <c r="AF25" s="1">
-        <v>23.624282</v>
+        <v>23.624282000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1351.720000</v>
+        <v>1351.72</v>
       </c>
       <c r="AH25" s="1">
-        <v>-173.689000</v>
+        <v>-173.68899999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>85057.975873</v>
+        <v>85057.975873000003</v>
       </c>
       <c r="AK25" s="1">
-        <v>23.627216</v>
+        <v>23.627216000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1371.420000</v>
+        <v>1371.42</v>
       </c>
       <c r="AM25" s="1">
-        <v>-202.196000</v>
+        <v>-202.196</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>85068.879923</v>
       </c>
       <c r="AP25" s="1">
-        <v>23.630244</v>
+        <v>23.630244000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1392.140000</v>
+        <v>1392.14</v>
       </c>
       <c r="AR25" s="1">
-        <v>-244.612000</v>
+        <v>-244.61199999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>85079.914212</v>
+        <v>85079.914212000003</v>
       </c>
       <c r="AU25" s="1">
-        <v>23.633310</v>
+        <v>23.633310000000002</v>
       </c>
       <c r="AV25" s="1">
-        <v>1415.720000</v>
+        <v>1415.72</v>
       </c>
       <c r="AW25" s="1">
-        <v>-302.824000</v>
+        <v>-302.82400000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>85090.858645</v>
       </c>
       <c r="AZ25" s="1">
-        <v>23.636350</v>
+        <v>23.63635</v>
       </c>
       <c r="BA25" s="1">
-        <v>1434.450000</v>
+        <v>1434.45</v>
       </c>
       <c r="BB25" s="1">
-        <v>-353.507000</v>
+        <v>-353.50700000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>85102.226461</v>
+        <v>85102.226460999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>23.639507</v>
+        <v>23.639506999999998</v>
       </c>
       <c r="BF25" s="1">
-        <v>1517.690000</v>
+        <v>1517.69</v>
       </c>
       <c r="BG25" s="1">
-        <v>-594.883000</v>
+        <v>-594.88300000000004</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>85113.302618</v>
+        <v>85113.302618000002</v>
       </c>
       <c r="BJ25" s="1">
-        <v>23.642584</v>
+        <v>23.642583999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1669.360000</v>
+        <v>1669.36</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1026.010000</v>
+        <v>-1026.01</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>85124.045962</v>
+        <v>85124.045962000004</v>
       </c>
       <c r="BO25" s="1">
-        <v>23.645568</v>
+        <v>23.645568000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1957.780000</v>
+        <v>1957.78</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1770.130000</v>
+        <v>-1770.13</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>85134.678700</v>
+        <v>85134.678700000004</v>
       </c>
       <c r="BT25" s="1">
         <v>23.648522</v>
       </c>
       <c r="BU25" s="1">
-        <v>2338.070000</v>
+        <v>2338.0700000000002</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2625.660000</v>
+        <v>-2625.66</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>85145.606094</v>
+        <v>85145.606094000002</v>
       </c>
       <c r="BY25" s="1">
         <v>23.651557</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2806.290000</v>
+        <v>2806.29</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3559.840000</v>
+        <v>-3559.84</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>85159.254971</v>
+        <v>85159.254971000002</v>
       </c>
       <c r="CD25" s="1">
-        <v>23.655349</v>
+        <v>23.655349000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>4188.760000</v>
+        <v>4188.76</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5806.020000</v>
+        <v>-5806.02</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>84985.030737</v>
+        <v>84985.030736999994</v>
       </c>
       <c r="B26" s="1">
-        <v>23.606953</v>
+        <v>23.606953000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1236.340000</v>
+        <v>1236.3399999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-300.022000</v>
+        <v>-300.02199999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>84995.170948</v>
+        <v>84995.170947999999</v>
       </c>
       <c r="G26" s="1">
-        <v>23.609770</v>
+        <v>23.609770000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1261.450000</v>
+        <v>1261.45</v>
       </c>
       <c r="I26" s="1">
-        <v>-259.898000</v>
+        <v>-259.89800000000002</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>85005.696054</v>
@@ -6679,225 +7095,226 @@
         <v>23.612693</v>
       </c>
       <c r="M26" s="1">
-        <v>1297.290000</v>
+        <v>1297.29</v>
       </c>
       <c r="N26" s="1">
-        <v>-199.224000</v>
+        <v>-199.22399999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>85015.914137</v>
       </c>
       <c r="Q26" s="1">
-        <v>23.615532</v>
+        <v>23.615532000000002</v>
       </c>
       <c r="R26" s="1">
-        <v>1309.250000</v>
+        <v>1309.25</v>
       </c>
       <c r="S26" s="1">
-        <v>-181.273000</v>
+        <v>-181.273</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>85026.355915</v>
+        <v>85026.355914999993</v>
       </c>
       <c r="V26" s="1">
-        <v>23.618432</v>
+        <v>23.618431999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1322.170000</v>
+        <v>1322.17</v>
       </c>
       <c r="X26" s="1">
-        <v>-167.657000</v>
+        <v>-167.65700000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>85037.288237</v>
+        <v>85037.288237000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>23.621469</v>
+        <v>23.621469000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1339.310000</v>
+        <v>1339.31</v>
       </c>
       <c r="AC26" s="1">
-        <v>-164.583000</v>
+        <v>-164.583</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>85047.756304</v>
+        <v>85047.756303999995</v>
       </c>
       <c r="AF26" s="1">
-        <v>23.624377</v>
+        <v>23.624376999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1351.590000</v>
+        <v>1351.59</v>
       </c>
       <c r="AH26" s="1">
-        <v>-173.593000</v>
+        <v>-173.59299999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>85058.324561</v>
+        <v>85058.324561000001</v>
       </c>
       <c r="AK26" s="1">
         <v>23.627312</v>
       </c>
       <c r="AL26" s="1">
-        <v>1371.410000</v>
+        <v>1371.41</v>
       </c>
       <c r="AM26" s="1">
-        <v>-202.205000</v>
+        <v>-202.20500000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>85069.240516</v>
+        <v>85069.240516000005</v>
       </c>
       <c r="AP26" s="1">
-        <v>23.630345</v>
+        <v>23.630344999999998</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1392.160000</v>
+        <v>1392.16</v>
       </c>
       <c r="AR26" s="1">
-        <v>-244.598000</v>
+        <v>-244.59800000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>85080.281965</v>
+        <v>85080.281965000002</v>
       </c>
       <c r="AU26" s="1">
         <v>23.633412</v>
       </c>
       <c r="AV26" s="1">
-        <v>1415.720000</v>
+        <v>1415.72</v>
       </c>
       <c r="AW26" s="1">
-        <v>-302.828000</v>
+        <v>-302.82799999999997</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>85091.536677</v>
+        <v>85091.536676999996</v>
       </c>
       <c r="AZ26" s="1">
-        <v>23.636538</v>
+        <v>23.636538000000002</v>
       </c>
       <c r="BA26" s="1">
-        <v>1434.400000</v>
+        <v>1434.4</v>
       </c>
       <c r="BB26" s="1">
-        <v>-353.537000</v>
+        <v>-353.53699999999998</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>85102.637142</v>
+        <v>85102.637142000007</v>
       </c>
       <c r="BE26" s="1">
-        <v>23.639621</v>
+        <v>23.639621000000002</v>
       </c>
       <c r="BF26" s="1">
-        <v>1517.670000</v>
+        <v>1517.67</v>
       </c>
       <c r="BG26" s="1">
-        <v>-594.880000</v>
+        <v>-594.88</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>85113.735127</v>
+        <v>85113.735127000007</v>
       </c>
       <c r="BJ26" s="1">
-        <v>23.642704</v>
+        <v>23.642703999999998</v>
       </c>
       <c r="BK26" s="1">
-        <v>1669.320000</v>
+        <v>1669.32</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1025.900000</v>
+        <v>-1025.9000000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>85124.443756</v>
+        <v>85124.443755999993</v>
       </c>
       <c r="BO26" s="1">
-        <v>23.645679</v>
+        <v>23.645679000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1957.760000</v>
+        <v>1957.76</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1770.180000</v>
+        <v>-1770.18</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>85135.114188</v>
+        <v>85135.114188000007</v>
       </c>
       <c r="BT26" s="1">
         <v>23.648643</v>
       </c>
       <c r="BU26" s="1">
-        <v>2338.030000</v>
+        <v>2338.0300000000002</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2626.360000</v>
+        <v>-2626.36</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>85146.023197</v>
+        <v>85146.023197000002</v>
       </c>
       <c r="BY26" s="1">
-        <v>23.651673</v>
+        <v>23.651672999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2806.430000</v>
+        <v>2806.43</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3560.760000</v>
+        <v>-3560.76</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>85159.783211</v>
+        <v>85159.783211000002</v>
       </c>
       <c r="CD26" s="1">
-        <v>23.655495</v>
+        <v>23.655494999999998</v>
       </c>
       <c r="CE26" s="1">
-        <v>4182.320000</v>
+        <v>4182.32</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5794.760000</v>
+        <v>-5794.76</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>